--- a/Clase_00/Base_1_TimeSeries.xlsx
+++ b/Clase_00/Base_1_TimeSeries.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Documents/Personal/Cursos_UNAM/SERIES_2025-I/Series-Tiempo-2024/Clase_00/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Documents/Personal/Cursos_UNAM/Series-Tiempo/BD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C4B535-B03E-E74F-8D07-43E63430F918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864080E0-535C-F94E-90BA-B49E6C954C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32100" yWindow="2780" windowWidth="27640" windowHeight="16540" xr2:uid="{0D46E9FE-A0A6-634E-B88F-BB6E7EC27F03}"/>
   </bookViews>
@@ -25,11 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="288">
   <si>
     <t>Periodo</t>
   </si>
   <si>
+    <t>IGAE_2013</t>
+  </si>
+  <si>
+    <t>IGAE_PRIM_2013</t>
+  </si>
+  <si>
     <t>IPC_BMV</t>
   </si>
   <si>
@@ -813,12 +819,6 @@
     <t>2023/05</t>
   </si>
   <si>
-    <t>IGAE_2018</t>
-  </si>
-  <si>
-    <t>IGAE_PRIM_2018</t>
-  </si>
-  <si>
     <t>2023/06</t>
   </si>
   <si>
@@ -856,6 +856,39 @@
   </si>
   <si>
     <t>2024/06</t>
+  </si>
+  <si>
+    <t>2024/07</t>
+  </si>
+  <si>
+    <t>2024/08</t>
+  </si>
+  <si>
+    <t>2024/09</t>
+  </si>
+  <si>
+    <t>2024/10</t>
+  </si>
+  <si>
+    <t>2024/11</t>
+  </si>
+  <si>
+    <t>2024/12</t>
+  </si>
+  <si>
+    <t>2025/01</t>
+  </si>
+  <si>
+    <t>2025/02</t>
+  </si>
+  <si>
+    <t>2025/03</t>
+  </si>
+  <si>
+    <t>2025/04</t>
+  </si>
+  <si>
+    <t>2025/05</t>
   </si>
 </sst>
 </file>
@@ -1213,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033E69B6-2D16-514E-A726-941639C52B74}">
-  <dimension ref="A1:G271"/>
+  <dimension ref="A1:G282"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G272" sqref="G272"/>
+    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F283" sqref="F283:F284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1226,33 +1259,33 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>262</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>263</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>71.112734477095998</v>
+        <v>70.583749647092006</v>
       </c>
       <c r="C2">
-        <v>76.060817880786004</v>
+        <v>76.060817880786999</v>
       </c>
       <c r="D2">
         <v>36.927558573412</v>
@@ -1264,18 +1297,18 @@
         <v>6927.87</v>
       </c>
       <c r="G2">
-        <v>9.1463000000000001</v>
+        <v>9.1616</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>68.966554728160006</v>
+        <v>69.194394152379004</v>
       </c>
       <c r="C3">
-        <v>66.179852479339004</v>
+        <v>66.179852479339999</v>
       </c>
       <c r="D3">
         <v>37.597942107675998</v>
@@ -1287,15 +1320,15 @@
         <v>6734.44</v>
       </c>
       <c r="G3">
-        <v>9.1303000000000001</v>
+        <v>9.0998000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>70.535946879972002</v>
+        <v>72.592518531376001</v>
       </c>
       <c r="C4">
         <v>64.961236820533003</v>
@@ -1310,15 +1343,15 @@
         <v>7361.86</v>
       </c>
       <c r="G4">
-        <v>9.016</v>
+        <v>9.0707000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>74.858038086774997</v>
+        <v>72.983456730922995</v>
       </c>
       <c r="C5">
         <v>65.887143744194006</v>
@@ -1333,18 +1366,18 @@
         <v>7480.74</v>
       </c>
       <c r="G5">
-        <v>9.3719999999999999</v>
+        <v>9.1629000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>74.712776096211996</v>
+        <v>74.208871115049007</v>
       </c>
       <c r="C6">
-        <v>75.950278687817999</v>
+        <v>75.950278687818994</v>
       </c>
       <c r="D6">
         <v>41.630049645459998</v>
@@ -1356,18 +1389,18 @@
         <v>7031.64</v>
       </c>
       <c r="G6">
-        <v>9.6562000000000001</v>
+        <v>9.5191999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>72.863379843811003</v>
+        <v>73.701724746395001</v>
       </c>
       <c r="C7">
-        <v>79.721720678522999</v>
+        <v>79.721720678523994</v>
       </c>
       <c r="D7">
         <v>41.547499507034999</v>
@@ -1379,15 +1412,15 @@
         <v>6460.95</v>
       </c>
       <c r="G7">
-        <v>9.9567999999999994</v>
+        <v>9.7652000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>73.619611596159004</v>
+        <v>73.128225042704997</v>
       </c>
       <c r="C8">
         <v>72.112697529377002</v>
@@ -1402,15 +1435,15 @@
         <v>6021.84</v>
       </c>
       <c r="G8">
-        <v>9.7860999999999994</v>
+        <v>9.7807999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>73.891727114017002</v>
+        <v>73.797243601538995</v>
       </c>
       <c r="C9">
         <v>64.513030242818004</v>
@@ -1425,15 +1458,15 @@
         <v>6216.43</v>
       </c>
       <c r="G9">
-        <v>9.9108999999999998</v>
+        <v>9.8396000000000008</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>73.956599931566004</v>
+        <v>74.506493376551006</v>
       </c>
       <c r="C10">
         <v>59.053447527995999</v>
@@ -1448,18 +1481,18 @@
         <v>5728.46</v>
       </c>
       <c r="G10">
-        <v>10.229900000000001</v>
+        <v>10.071400000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>74.951192521606004</v>
+        <v>74.393185771928998</v>
       </c>
       <c r="C11">
-        <v>66.292061836084002</v>
+        <v>66.292061836082993</v>
       </c>
       <c r="D11">
         <v>41.005364954704</v>
@@ -1471,18 +1504,18 @@
         <v>5967.73</v>
       </c>
       <c r="G11">
-        <v>10.155200000000001</v>
+        <v>10.095000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>73.359600857648005</v>
+        <v>73.364972535443002</v>
       </c>
       <c r="C12">
-        <v>82.358956560642994</v>
+        <v>82.358956560642</v>
       </c>
       <c r="D12">
         <v>42.111526092018003</v>
@@ -1494,18 +1527,18 @@
         <v>6156.83</v>
       </c>
       <c r="G12">
-        <v>10.1465</v>
+        <v>10.1975</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>73.873536808291007</v>
+        <v>74.118978295919007</v>
       </c>
       <c r="C13">
-        <v>84.432239801182007</v>
+        <v>84.432239801180003</v>
       </c>
       <c r="D13">
         <v>42.914961613891002</v>
@@ -1517,18 +1550,18 @@
         <v>6127.09</v>
       </c>
       <c r="G13">
-        <v>10.439299999999999</v>
+        <v>10.2249</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>72.570800210946999</v>
+        <v>72.081324343690994</v>
       </c>
       <c r="C14">
-        <v>78.772727303881993</v>
+        <v>78.772727303878995</v>
       </c>
       <c r="D14">
         <v>40.884979005161</v>
@@ -1540,18 +1573,18 @@
         <v>5954.35</v>
       </c>
       <c r="G14">
-        <v>10.9069</v>
+        <v>10.6203</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>70.941246035738004</v>
+        <v>71.174902715268004</v>
       </c>
       <c r="C15">
-        <v>67.587174379093995</v>
+        <v>67.587174379092005</v>
       </c>
       <c r="D15">
         <v>39.148309064803001</v>
@@ -1563,18 +1596,18 @@
         <v>5927.06</v>
       </c>
       <c r="G15">
-        <v>11.032400000000001</v>
+        <v>10.937200000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>73.522296486311006</v>
+        <v>73.679288962806993</v>
       </c>
       <c r="C16">
-        <v>66.484655829469006</v>
+        <v>66.484655829467002</v>
       </c>
       <c r="D16">
         <v>37.882144218617</v>
@@ -1586,18 +1619,18 @@
         <v>5914.03</v>
       </c>
       <c r="G16">
-        <v>10.7889</v>
+        <v>10.9124</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>73.556142425819004</v>
+        <v>73.747926225388994</v>
       </c>
       <c r="C17">
-        <v>67.365466898530002</v>
+        <v>67.365466898527998</v>
       </c>
       <c r="D17">
         <v>40.005031711850002</v>
@@ -1609,18 +1642,18 @@
         <v>6509.88</v>
       </c>
       <c r="G17">
-        <v>10.3</v>
+        <v>10.591699999999999</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>74.759866432207005</v>
+        <v>74.664130510082998</v>
       </c>
       <c r="C18">
-        <v>75.355370536867994</v>
+        <v>75.355370536864996</v>
       </c>
       <c r="D18">
         <v>40.957565736684003</v>
@@ -1632,18 +1665,18 @@
         <v>6699.18</v>
       </c>
       <c r="G18">
-        <v>10.3377</v>
+        <v>10.251200000000001</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>74.308724446572995</v>
+        <v>74.861108702598997</v>
       </c>
       <c r="C19">
-        <v>87.499106777750001</v>
+        <v>87.499106777747002</v>
       </c>
       <c r="D19">
         <v>41.352470524521003</v>
@@ -1655,18 +1688,18 @@
         <v>7054.99</v>
       </c>
       <c r="G19">
-        <v>10.436999999999999</v>
+        <v>10.5047</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>74.207327714342</v>
+        <v>73.654722906665995</v>
       </c>
       <c r="C20">
-        <v>77.239821583216994</v>
+        <v>77.239821583215999</v>
       </c>
       <c r="D20">
         <v>41.377350711883999</v>
@@ -1678,15 +1711,15 @@
         <v>7355.07</v>
       </c>
       <c r="G20">
-        <v>10.5243</v>
+        <v>10.450200000000001</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>72.618939738110996</v>
+        <v>73.206182846738997</v>
       </c>
       <c r="C21">
         <v>64.196182513742002</v>
@@ -1701,18 +1734,18 @@
         <v>7591.42</v>
       </c>
       <c r="G21">
-        <v>11.047499999999999</v>
+        <v>10.7811</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>74.302477579568006</v>
+        <v>73.955461492688002</v>
       </c>
       <c r="C22">
-        <v>61.471991990291997</v>
+        <v>61.471991990292999</v>
       </c>
       <c r="D22">
         <v>40.095952771034</v>
@@ -1724,18 +1757,18 @@
         <v>7822.48</v>
       </c>
       <c r="G22">
-        <v>11.013299999999999</v>
+        <v>10.9269</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>74.775799788387005</v>
+        <v>74.271446020089002</v>
       </c>
       <c r="C23">
-        <v>61.252990526860003</v>
+        <v>61.252990526862</v>
       </c>
       <c r="D23">
         <v>39.822303594204001</v>
@@ -1747,18 +1780,18 @@
         <v>8064.83</v>
       </c>
       <c r="G23">
-        <v>11.0525</v>
+        <v>11.174799999999999</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>72.965023310118994</v>
+        <v>73.804898866650007</v>
       </c>
       <c r="C24">
-        <v>88.913288849720004</v>
+        <v>88.913288849726001</v>
       </c>
       <c r="D24">
         <v>39.155114573469</v>
@@ -1770,18 +1803,18 @@
         <v>8554.48</v>
       </c>
       <c r="G24">
-        <v>11.3985</v>
+        <v>11.145</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>76.157523369147995</v>
+        <v>75.649271431707007</v>
       </c>
       <c r="C25">
-        <v>90.713361612797996</v>
+        <v>90.713361612805997</v>
       </c>
       <c r="D25">
         <v>39.600450099566999</v>
@@ -1793,18 +1826,18 @@
         <v>8795.2800000000007</v>
       </c>
       <c r="G25">
-        <v>11.2372</v>
+        <v>11.2486</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>73.610181304194995</v>
+        <v>73.515605228026004</v>
       </c>
       <c r="C26">
-        <v>87.815447561734999</v>
+        <v>87.815447561747007</v>
       </c>
       <c r="D26">
         <v>39.629821475025999</v>
@@ -1816,18 +1849,18 @@
         <v>9428.77</v>
       </c>
       <c r="G26">
-        <v>11.0214</v>
+        <v>10.915100000000001</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
-        <v>72.557269622152006</v>
+        <v>72.420021735221994</v>
       </c>
       <c r="C27">
-        <v>75.149784061695996</v>
+        <v>75.149784061706001</v>
       </c>
       <c r="D27">
         <v>39.437491418458997</v>
@@ -1839,18 +1872,18 @@
         <v>9991.7999999999993</v>
       </c>
       <c r="G27">
-        <v>11.060600000000001</v>
+        <v>11.014200000000001</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>77.760942083765002</v>
+        <v>76.570554247925998</v>
       </c>
       <c r="C28">
-        <v>68.220501814005999</v>
+        <v>68.220501814014995</v>
       </c>
       <c r="D28">
         <v>39.626755192928997</v>
@@ -1862,18 +1895,18 @@
         <v>10517.5</v>
       </c>
       <c r="G28">
-        <v>11.174799999999999</v>
+        <v>11.009399999999999</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>76.01497934919</v>
+        <v>76.318309767892998</v>
       </c>
       <c r="C29">
-        <v>70.216757052771996</v>
+        <v>70.216757052781006</v>
       </c>
       <c r="D29">
         <v>39.752330848820002</v>
@@ -1885,18 +1918,18 @@
         <v>9948.1299999999992</v>
       </c>
       <c r="G29">
-        <v>11.4093</v>
+        <v>11.2751</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>76.995096424517001</v>
+        <v>77.835891213815003</v>
       </c>
       <c r="C30">
-        <v>77.802659830891997</v>
+        <v>77.802659830902002</v>
       </c>
       <c r="D30">
         <v>41.079092185707999</v>
@@ -1908,18 +1941,18 @@
         <v>10036.290000000001</v>
       </c>
       <c r="G30">
-        <v>11.4147</v>
+        <v>11.5124</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>77.969018515094007</v>
+        <v>77.493344897333998</v>
       </c>
       <c r="C31">
-        <v>84.827823379744999</v>
+        <v>84.827823379752999</v>
       </c>
       <c r="D31">
         <v>41.079287995192999</v>
@@ -1931,18 +1964,18 @@
         <v>10281.82</v>
       </c>
       <c r="G31">
-        <v>11.5258</v>
+        <v>11.3894</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>75.763272207821998</v>
+        <v>75.665844299564</v>
       </c>
       <c r="C32">
-        <v>74.945761404245005</v>
+        <v>74.945761404248003</v>
       </c>
       <c r="D32">
         <v>39.838268740672</v>
@@ -1954,15 +1987,15 @@
         <v>10116.39</v>
       </c>
       <c r="G32">
-        <v>11.4079</v>
+        <v>11.4636</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>75.862969715142</v>
+        <v>76.114574146023003</v>
       </c>
       <c r="C33">
         <v>61.588411377120998</v>
@@ -1977,18 +2010,18 @@
         <v>10264.32</v>
       </c>
       <c r="G33">
-        <v>11.380699999999999</v>
+        <v>11.3942</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>76.749865435906997</v>
+        <v>76.491140869831995</v>
       </c>
       <c r="C34">
-        <v>59.752815717141999</v>
+        <v>59.752815717139001</v>
       </c>
       <c r="D34">
         <v>40.088043180325997</v>
@@ -2000,18 +2033,18 @@
         <v>10957.37</v>
       </c>
       <c r="G34">
-        <v>11.388400000000001</v>
+        <v>11.4864</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>76.542400120257</v>
+        <v>77.160903447516006</v>
       </c>
       <c r="C35">
-        <v>64.657805801052007</v>
+        <v>64.657805801045001</v>
       </c>
       <c r="D35">
         <v>39.099826295804</v>
@@ -2023,18 +2056,18 @@
         <v>11564.35</v>
       </c>
       <c r="G35">
-        <v>11.539</v>
+        <v>11.398300000000001</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>77.597182492399</v>
+        <v>77.235093879681997</v>
       </c>
       <c r="C36">
-        <v>93.311601677278006</v>
+        <v>93.311601677255993</v>
       </c>
       <c r="D36">
         <v>39.169206341328</v>
@@ -2046,18 +2079,18 @@
         <v>12102.55</v>
       </c>
       <c r="G36">
-        <v>11.237299999999999</v>
+        <v>11.3681</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>78.613752436210007</v>
+        <v>78.083548965220004</v>
       </c>
       <c r="C37">
-        <v>93.349471308652994</v>
+        <v>93.349471308622</v>
       </c>
       <c r="D37">
         <v>41.712131922208002</v>
@@ -2069,18 +2102,18 @@
         <v>12917.88</v>
       </c>
       <c r="G37">
-        <v>11.1495</v>
+        <v>11.2041</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>74.599199264882003</v>
+        <v>75.413723601005003</v>
       </c>
       <c r="C38">
-        <v>80.668535794415007</v>
+        <v>80.668535794380006</v>
       </c>
       <c r="D38">
         <v>42.019477188346997</v>
@@ -2092,18 +2125,18 @@
         <v>13097.12</v>
       </c>
       <c r="G38">
-        <v>11.2141</v>
+        <v>11.2607</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>73.878798399654002</v>
+        <v>74.122589725283007</v>
       </c>
       <c r="C39">
-        <v>71.936698586107994</v>
+        <v>71.936698586074996</v>
       </c>
       <c r="D39">
         <v>43.222584660529002</v>
@@ -2115,18 +2148,18 @@
         <v>13789.46</v>
       </c>
       <c r="G39">
-        <v>11.096500000000001</v>
+        <v>11.136699999999999</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>76.063421614120998</v>
+        <v>77.074854608140996</v>
       </c>
       <c r="C40">
-        <v>63.412448942612997</v>
+        <v>63.412448942585002</v>
       </c>
       <c r="D40">
         <v>42.862173490898002</v>
@@ -2138,18 +2171,18 @@
         <v>12676.9</v>
       </c>
       <c r="G40">
-        <v>11.1783</v>
+        <v>11.1427</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>79.215658288664002</v>
+        <v>77.599479346221997</v>
       </c>
       <c r="C41">
-        <v>68.462732933333996</v>
+        <v>68.462732933303997</v>
       </c>
       <c r="D41">
         <v>41.124198784562999</v>
@@ -2161,18 +2194,18 @@
         <v>12322.99</v>
       </c>
       <c r="G41">
-        <v>11.0832</v>
+        <v>11.116300000000001</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>79.088214960909994</v>
+        <v>79.350268774773994</v>
       </c>
       <c r="C42">
-        <v>77.094490972789998</v>
+        <v>77.094490972757001</v>
       </c>
       <c r="D42">
         <v>40.653950418611998</v>
@@ -2184,18 +2217,18 @@
         <v>12964.39</v>
       </c>
       <c r="G42">
-        <v>10.916</v>
+        <v>10.9733</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>78.087974637382004</v>
+        <v>77.824628120436003</v>
       </c>
       <c r="C43">
-        <v>75.010521400529996</v>
+        <v>75.010521400505993</v>
       </c>
       <c r="D43">
         <v>41.055830727975</v>
@@ -2207,18 +2240,18 @@
         <v>13486.13</v>
       </c>
       <c r="G43">
-        <v>10.7752</v>
+        <v>10.822800000000001</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>76.108326187998998</v>
+        <v>76.7233942095</v>
       </c>
       <c r="C44">
-        <v>80.761168050980999</v>
+        <v>80.761168050964997</v>
       </c>
       <c r="D44">
         <v>41.125404075920002</v>
@@ -2230,15 +2263,15 @@
         <v>14409.66</v>
       </c>
       <c r="G44">
-        <v>10.605700000000001</v>
+        <v>10.678100000000001</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
-        <v>78.495941868095997</v>
+        <v>77.971653802663994</v>
       </c>
       <c r="C45">
         <v>64.655984312341999</v>
@@ -2253,18 +2286,18 @@
         <v>14243.19</v>
       </c>
       <c r="G45">
-        <v>10.7995</v>
+        <v>10.6882</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>79.097560538861998</v>
+        <v>78.723733139901995</v>
       </c>
       <c r="C46">
-        <v>59.118641916800001</v>
+        <v>59.118641916809999</v>
       </c>
       <c r="D46">
         <v>41.708963780631002</v>
@@ -2276,18 +2309,18 @@
         <v>16120.08</v>
       </c>
       <c r="G46">
-        <v>10.790699999999999</v>
+        <v>10.7775</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>78.968514700306002</v>
+        <v>79.831450006672995</v>
       </c>
       <c r="C47">
-        <v>62.916580907632003</v>
+        <v>62.916580907655003</v>
       </c>
       <c r="D47">
         <v>41.971550838587</v>
@@ -2299,18 +2332,18 @@
         <v>15759.73</v>
       </c>
       <c r="G47">
-        <v>10.7857</v>
+        <v>10.8324</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>80.250749880087994</v>
+        <v>79.761423403608006</v>
       </c>
       <c r="C48">
-        <v>90.476193990466996</v>
+        <v>90.476193990537993</v>
       </c>
       <c r="D48">
         <v>42.105013533792999</v>
@@ -2322,18 +2355,18 @@
         <v>16830.96</v>
       </c>
       <c r="G48">
-        <v>10.5793</v>
+        <v>10.6685</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>81.090409155790994</v>
+        <v>80.986013149580003</v>
       </c>
       <c r="C49">
-        <v>87.446820542042005</v>
+        <v>87.446820542137004</v>
       </c>
       <c r="D49">
         <v>44.332791536949998</v>
@@ -2345,18 +2378,18 @@
         <v>17802.71</v>
       </c>
       <c r="G49">
-        <v>10.634399999999999</v>
+        <v>10.6295</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>79.264682642815998</v>
+        <v>79.527855735794006</v>
       </c>
       <c r="C50">
-        <v>88.651394102686993</v>
+        <v>88.651394102826998</v>
       </c>
       <c r="D50">
         <v>43.941498399982002</v>
@@ -2368,18 +2401,18 @@
         <v>18907.099999999999</v>
       </c>
       <c r="G50">
-        <v>10.443300000000001</v>
+        <v>10.547000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>76.806691431369003</v>
+        <v>77.060243763854004</v>
       </c>
       <c r="C51">
-        <v>71.407380269420003</v>
+        <v>71.407380269531998</v>
       </c>
       <c r="D51">
         <v>43.910020768118002</v>
@@ -2391,18 +2424,18 @@
         <v>18706.32</v>
       </c>
       <c r="G51">
-        <v>10.456</v>
+        <v>10.4833</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>82.035547868674996</v>
+        <v>80.774608290971003</v>
       </c>
       <c r="C52">
-        <v>63.712680075127999</v>
+        <v>63.712680075221002</v>
       </c>
       <c r="D52">
         <v>45.602881088803997</v>
@@ -2414,18 +2447,18 @@
         <v>19272.63</v>
       </c>
       <c r="G52">
-        <v>10.8935</v>
+        <v>10.7468</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>79.666903428370006</v>
+        <v>81.290226114084007</v>
       </c>
       <c r="C53">
-        <v>71.132209837158996</v>
+        <v>71.132209837274004</v>
       </c>
       <c r="D53">
         <v>44.785435891577997</v>
@@ -2437,18 +2470,18 @@
         <v>20646.189999999999</v>
       </c>
       <c r="G53">
-        <v>11.090299999999999</v>
+        <v>11.0421</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>84.410931545875997</v>
+        <v>83.847142136372995</v>
       </c>
       <c r="C54">
-        <v>82.385425667115996</v>
+        <v>82.385425667248001</v>
       </c>
       <c r="D54">
         <v>44.650804190865003</v>
@@ -2460,18 +2493,18 @@
         <v>18677.919999999998</v>
       </c>
       <c r="G54">
-        <v>11.2966</v>
+        <v>11.0923</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>83.279664450918006</v>
+        <v>82.885945231118001</v>
       </c>
       <c r="C55">
-        <v>89.922489906989</v>
+        <v>89.922489907108002</v>
       </c>
       <c r="D55">
         <v>44.233933754907</v>
@@ -2483,18 +2516,18 @@
         <v>19147.169999999998</v>
       </c>
       <c r="G55">
-        <v>11.2723</v>
+        <v>11.391299999999999</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>80.640959297072001</v>
+        <v>81.521710544493004</v>
       </c>
       <c r="C56">
-        <v>79.947651628958994</v>
+        <v>79.947651629014999</v>
       </c>
       <c r="D56">
         <v>44.867405533193001</v>
@@ -2506,18 +2539,18 @@
         <v>20095.93</v>
       </c>
       <c r="G56">
-        <v>10.918100000000001</v>
+        <v>10.985799999999999</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>82.410437825767005</v>
+        <v>81.796673019235001</v>
       </c>
       <c r="C57">
-        <v>63.548550556698999</v>
+        <v>63.548550556701997</v>
       </c>
       <c r="D57">
         <v>45.038260799334999</v>
@@ -2529,18 +2562,18 @@
         <v>21049.35</v>
       </c>
       <c r="G57">
-        <v>10.903700000000001</v>
+        <v>10.872</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>82.162539648004994</v>
+        <v>82.168569226139994</v>
       </c>
       <c r="C58">
-        <v>59.738747503413997</v>
+        <v>59.738747503385</v>
       </c>
       <c r="D58">
         <v>45.060374418395</v>
@@ -2552,18 +2585,18 @@
         <v>21937.11</v>
       </c>
       <c r="G58">
-        <v>10.993499999999999</v>
+        <v>10.985300000000001</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>83.526198503125997</v>
+        <v>83.802985910401006</v>
       </c>
       <c r="C59">
-        <v>73.131364790828997</v>
+        <v>73.131364790730998</v>
       </c>
       <c r="D59">
         <v>44.301648185090997</v>
@@ -2575,18 +2608,18 @@
         <v>23046.95</v>
       </c>
       <c r="G59">
-        <v>10.763999999999999</v>
+        <v>10.8971</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>82.727404653711005</v>
+        <v>82.447981898874005</v>
       </c>
       <c r="C60">
-        <v>91.770544742083004</v>
+        <v>91.770544741847004</v>
       </c>
       <c r="D60">
         <v>43.188289674998003</v>
@@ -2598,18 +2631,18 @@
         <v>24962.01</v>
       </c>
       <c r="G60">
-        <v>10.9975</v>
+        <v>10.9177</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>82.525566409795005</v>
+        <v>83.193288885966993</v>
       </c>
       <c r="C61">
-        <v>103.250428010001</v>
+        <v>103.250428009595</v>
       </c>
       <c r="D61">
         <v>44.787074059931001</v>
@@ -2621,18 +2654,18 @@
         <v>26448.32</v>
       </c>
       <c r="G61">
-        <v>10.8116</v>
+        <v>10.847899999999999</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>80.898321986325996</v>
+        <v>80.357608659396007</v>
       </c>
       <c r="C62">
-        <v>85.252024684313</v>
+        <v>85.252024683873998</v>
       </c>
       <c r="D62">
         <v>42.741221973401998</v>
@@ -2644,18 +2677,18 @@
         <v>27561.49</v>
       </c>
       <c r="G62">
-        <v>11.0382</v>
+        <v>10.9529</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>78.349341712959003</v>
+        <v>78.607327960397001</v>
       </c>
       <c r="C63">
-        <v>76.785520578988994</v>
+        <v>76.785520578559002</v>
       </c>
       <c r="D63">
         <v>42.377794728391002</v>
@@ -2667,18 +2700,18 @@
         <v>26638.95</v>
       </c>
       <c r="G63">
-        <v>11.168200000000001</v>
+        <v>10.9998</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>83.830294412173004</v>
+        <v>82.995189302621995</v>
       </c>
       <c r="C64">
-        <v>70.310842174602001</v>
+        <v>70.310842174230999</v>
       </c>
       <c r="D64">
         <v>43.567732769547</v>
@@ -2690,18 +2723,18 @@
         <v>28747.69</v>
       </c>
       <c r="G64">
-        <v>11.0322</v>
+        <v>11.113899999999999</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>81.968037121150005</v>
+        <v>83.300659920235006</v>
       </c>
       <c r="C65">
-        <v>73.656864302887996</v>
+        <v>73.656864302490007</v>
       </c>
       <c r="D65">
         <v>43.441486719152998</v>
@@ -2713,18 +2746,18 @@
         <v>28996.71</v>
       </c>
       <c r="G65">
-        <v>10.9278</v>
+        <v>10.980600000000001</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>85.634108480392996</v>
+        <v>84.996678768707</v>
       </c>
       <c r="C66">
-        <v>86.272158228307006</v>
+        <v>86.272158227838005</v>
       </c>
       <c r="D66">
         <v>43.753407724589003</v>
@@ -2736,18 +2769,18 @@
         <v>31398.959999999999</v>
       </c>
       <c r="G66">
-        <v>10.7445</v>
+        <v>10.816700000000001</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>84.987967020260996</v>
+        <v>84.993760712135</v>
       </c>
       <c r="C67">
-        <v>97.299091900625996</v>
+        <v>97.299091900175</v>
       </c>
       <c r="D67">
         <v>43.069396217955997</v>
@@ -2759,18 +2792,18 @@
         <v>31151.05</v>
       </c>
       <c r="G67">
-        <v>10.794600000000001</v>
+        <v>10.835000000000001</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>83.281569462015</v>
+        <v>83.558176766396002</v>
       </c>
       <c r="C68">
-        <v>84.691700335885002</v>
+        <v>84.691700335684004</v>
       </c>
       <c r="D68">
         <v>42.962881260261</v>
@@ -2782,18 +2815,18 @@
         <v>30659.66</v>
       </c>
       <c r="G68">
-        <v>10.927300000000001</v>
+        <v>10.8109</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>84.276007671391</v>
+        <v>83.707344399125006</v>
       </c>
       <c r="C69">
-        <v>68.968552660897998</v>
+        <v>68.968552660894005</v>
       </c>
       <c r="D69">
         <v>43.986291684984003</v>
@@ -2805,18 +2838,18 @@
         <v>30347.86</v>
       </c>
       <c r="G69">
-        <v>11.037800000000001</v>
+        <v>11.0456</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>83.266925789116996</v>
+        <v>84.225485012394003</v>
       </c>
       <c r="C70">
-        <v>60.541983374135</v>
+        <v>60.541983374245</v>
       </c>
       <c r="D70">
         <v>43.023769283466002</v>
@@ -2828,18 +2861,18 @@
         <v>30296.19</v>
       </c>
       <c r="G70">
-        <v>10.9315</v>
+        <v>11.031499999999999</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>86.593980036599007</v>
+        <v>86.015559893344005</v>
       </c>
       <c r="C71">
-        <v>76.787795457783005</v>
+        <v>76.787795458158996</v>
       </c>
       <c r="D71">
         <v>41.266570387477998</v>
@@ -2851,18 +2884,18 @@
         <v>31458.67</v>
       </c>
       <c r="G71">
-        <v>10.702299999999999</v>
+        <v>10.8231</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>84.785025565423993</v>
+        <v>84.383824044432998</v>
       </c>
       <c r="C72">
-        <v>106.57165683567</v>
+        <v>106.571656836751</v>
       </c>
       <c r="D72">
         <v>40.856834279973</v>
@@ -2874,18 +2907,18 @@
         <v>29770.52</v>
       </c>
       <c r="G72">
-        <v>10.896800000000001</v>
+        <v>10.8866</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>83.550798978242995</v>
+        <v>84.463491743690994</v>
       </c>
       <c r="C73">
-        <v>89.805964525909005</v>
+        <v>89.805964527103995</v>
       </c>
       <c r="D73">
         <v>42.820180786066999</v>
@@ -2897,18 +2930,18 @@
         <v>29536.83</v>
       </c>
       <c r="G73">
-        <v>10.915699999999999</v>
+        <v>10.8484</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>82.477617804828</v>
+        <v>81.864166937028003</v>
       </c>
       <c r="C74">
-        <v>87.999415912141998</v>
+        <v>87.999415913834</v>
       </c>
       <c r="D74">
         <v>42.182214698816999</v>
@@ -2920,18 +2953,18 @@
         <v>28793.64</v>
       </c>
       <c r="G74">
-        <v>10.8262</v>
+        <v>10.91</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>81.216819355908996</v>
+        <v>80.146601325516002</v>
       </c>
       <c r="C75">
-        <v>75.896374248388994</v>
+        <v>75.896374249906998</v>
       </c>
       <c r="D75">
         <v>41.220788409099001</v>
@@ -2943,18 +2976,18 @@
         <v>28918.52</v>
       </c>
       <c r="G75">
-        <v>10.724299999999999</v>
+        <v>10.766500000000001</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>80.733070849729998</v>
+        <v>83.320527023672994</v>
       </c>
       <c r="C76">
-        <v>66.348516824680004</v>
+        <v>66.348516825898997</v>
       </c>
       <c r="D76">
         <v>41.896449634047997</v>
@@ -2966,18 +2999,18 @@
         <v>30912.99</v>
       </c>
       <c r="G76">
-        <v>10.648199999999999</v>
+        <v>10.731299999999999</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>86.804123598795002</v>
+        <v>84.508159419205001</v>
       </c>
       <c r="C77">
-        <v>77.379843454153004</v>
+        <v>77.379843455783003</v>
       </c>
       <c r="D77">
         <v>40.153081011391997</v>
@@ -2989,18 +3022,18 @@
         <v>30281.41</v>
       </c>
       <c r="G77">
-        <v>10.509499999999999</v>
+        <v>10.5154</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>85.475304853099004</v>
+        <v>85.365389985945995</v>
       </c>
       <c r="C78">
-        <v>91.372117726537994</v>
+        <v>91.372117728459003</v>
       </c>
       <c r="D78">
         <v>38.911996368962001</v>
@@ -3012,18 +3045,18 @@
         <v>31975.47</v>
       </c>
       <c r="G78">
-        <v>10.3306</v>
+        <v>10.4352</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>85.477209603044003</v>
+        <v>86.112085865400999</v>
       </c>
       <c r="C79">
-        <v>95.055841819657999</v>
+        <v>95.055841821271002</v>
       </c>
       <c r="D79">
         <v>37.690265007720001</v>
@@ -3035,18 +3068,18 @@
         <v>29395.49</v>
       </c>
       <c r="G79">
-        <v>10.306900000000001</v>
+        <v>10.3292</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>85.630971218623003</v>
+        <v>84.993701095863003</v>
       </c>
       <c r="C80">
-        <v>90.394399227644001</v>
+        <v>90.394399228504994</v>
       </c>
       <c r="D80">
         <v>36.703523097359998</v>
@@ -3058,18 +3091,18 @@
         <v>27501.02</v>
       </c>
       <c r="G80">
-        <v>10.035299999999999</v>
+        <v>10.2155</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>83.082533530722998</v>
+        <v>83.754792677614006</v>
       </c>
       <c r="C81">
-        <v>61.858347291694997</v>
+        <v>61.858347291721998</v>
       </c>
       <c r="D81">
         <v>37.261608880235997</v>
@@ -3081,18 +3114,18 @@
         <v>26290.99</v>
       </c>
       <c r="G81">
-        <v>10.284700000000001</v>
+        <v>10.109500000000001</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>84.120378723155</v>
+        <v>83.727671136240005</v>
       </c>
       <c r="C82">
-        <v>57.816346721609001</v>
+        <v>57.816346721294003</v>
       </c>
       <c r="D82">
         <v>36.655757017577002</v>
@@ -3104,18 +3137,18 @@
         <v>24888.9</v>
       </c>
       <c r="G82">
-        <v>10.981400000000001</v>
+        <v>10.643700000000001</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>86.631648828918003</v>
+        <v>86.047447197126999</v>
       </c>
       <c r="C83">
-        <v>78.227051298358006</v>
+        <v>78.227051297000997</v>
       </c>
       <c r="D83">
         <v>34.207808884236997</v>
@@ -3127,18 +3160,18 @@
         <v>20445.32</v>
       </c>
       <c r="G83">
-        <v>12.7125</v>
+        <v>12.631399999999999</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>82.903974708871999</v>
+        <v>83.858306525605002</v>
       </c>
       <c r="C84">
-        <v>101.098076249888</v>
+        <v>101.098076246381</v>
       </c>
       <c r="D84">
         <v>34.949981333476998</v>
@@ -3150,18 +3183,18 @@
         <v>20534.72</v>
       </c>
       <c r="G84">
-        <v>13.3225</v>
+        <v>13.114000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>83.155772885903005</v>
+        <v>82.600525423134002</v>
       </c>
       <c r="C85">
-        <v>103.044140530856</v>
+        <v>103.044140525554</v>
       </c>
       <c r="D85">
         <v>34.998662925250997</v>
@@ -3173,18 +3206,18 @@
         <v>22380.32</v>
       </c>
       <c r="G85">
-        <v>13.8325</v>
+        <v>13.422599999999999</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>76.019281324613999</v>
+        <v>75.921516014526006</v>
       </c>
       <c r="C86">
-        <v>86.909367986126995</v>
+        <v>86.909367980316006</v>
       </c>
       <c r="D86">
         <v>34.408357698124</v>
@@ -3196,18 +3229,18 @@
         <v>19565.14</v>
       </c>
       <c r="G86">
-        <v>14.309699999999999</v>
+        <v>13.892099999999999</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>73.650563402428006</v>
+        <v>73.893837976377995</v>
       </c>
       <c r="C87">
-        <v>69.852838483374995</v>
+        <v>69.852838478915999</v>
       </c>
       <c r="D87">
         <v>33.402302324951002</v>
@@ -3219,18 +3252,18 @@
         <v>17752.18</v>
       </c>
       <c r="G87">
-        <v>15.069800000000001</v>
+        <v>14.5966</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>78.418479865766002</v>
+        <v>77.994558705204994</v>
       </c>
       <c r="C88">
-        <v>69.072561851474006</v>
+        <v>69.072561846941994</v>
       </c>
       <c r="D88">
         <v>33.472771550429002</v>
@@ -3242,18 +3275,18 @@
         <v>19626.75</v>
       </c>
       <c r="G88">
-        <v>14.1517</v>
+        <v>14.669499999999999</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>76.256850123282007</v>
+        <v>76.665811279644004</v>
       </c>
       <c r="C89">
-        <v>79.097808367921004</v>
+        <v>79.097808362128006</v>
       </c>
       <c r="D89">
         <v>34.600273054943997</v>
@@ -3265,18 +3298,18 @@
         <v>21898.85</v>
       </c>
       <c r="G89">
-        <v>13.8443</v>
+        <v>13.4367</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>76.803582114137001</v>
+        <v>77.425021927608</v>
       </c>
       <c r="C90">
-        <v>85.142161796170996</v>
+        <v>85.142161790393999</v>
       </c>
       <c r="D90">
         <v>33.193280715325002</v>
@@ -3288,18 +3321,18 @@
         <v>24331.71</v>
       </c>
       <c r="G90">
-        <v>13.166700000000001</v>
+        <v>13.162100000000001</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>79.089878704222002</v>
+        <v>78.721130648659994</v>
       </c>
       <c r="C91">
-        <v>93.811789458378001</v>
+        <v>93.811789453117001</v>
       </c>
       <c r="D91">
         <v>34.225594932537</v>
@@ -3311,18 +3344,18 @@
         <v>24368.38</v>
       </c>
       <c r="G91">
-        <v>13.1722</v>
+        <v>13.341799999999999</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>80.181038260516004</v>
+        <v>79.639975571530002</v>
       </c>
       <c r="C92">
-        <v>83.663976343640996</v>
+        <v>83.663976341307006</v>
       </c>
       <c r="D92">
         <v>36.050174206744998</v>
@@ -3334,18 +3367,18 @@
         <v>27043.5</v>
       </c>
       <c r="G92">
-        <v>13.2125</v>
+        <v>13.365399999999999</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>78.071588129535996</v>
+        <v>78.924653533929998</v>
       </c>
       <c r="C93">
-        <v>62.648172813835998</v>
+        <v>62.648172813909</v>
       </c>
       <c r="D93">
         <v>34.530559234720997</v>
@@ -3357,18 +3390,18 @@
         <v>28129.95</v>
       </c>
       <c r="G93">
-        <v>13.314</v>
+        <v>13.007999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>80.063889370865994</v>
+        <v>79.575564209624005</v>
       </c>
       <c r="C94">
-        <v>58.973530331021998</v>
+        <v>58.973530332281001</v>
       </c>
       <c r="D94">
         <v>34.499310914771002</v>
@@ -3380,18 +3413,18 @@
         <v>29232.240000000002</v>
       </c>
       <c r="G94">
-        <v>13.492800000000001</v>
+        <v>13.421200000000001</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>82.344494798328</v>
+        <v>82.238405065840993</v>
       </c>
       <c r="C95">
-        <v>71.753008910155998</v>
+        <v>71.753008914233007</v>
       </c>
       <c r="D95">
         <v>32.609581622264002</v>
@@ -3403,18 +3436,18 @@
         <v>28646.03</v>
       </c>
       <c r="G95">
-        <v>13.1479</v>
+        <v>13.2257</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>82.196433201740007</v>
+        <v>82.806708351867002</v>
       </c>
       <c r="C96">
-        <v>98.646229525851993</v>
+        <v>98.646229537655003</v>
       </c>
       <c r="D96">
         <v>33.170739517975001</v>
@@ -3426,18 +3459,18 @@
         <v>30957.11</v>
       </c>
       <c r="G96">
-        <v>12.915699999999999</v>
+        <v>13.109400000000001</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>83.291762364402999</v>
+        <v>82.672108835312997</v>
       </c>
       <c r="C97">
-        <v>98.581987347177005</v>
+        <v>98.581987363931006</v>
       </c>
       <c r="D97">
         <v>33.986489860492</v>
@@ -3449,18 +3482,18 @@
         <v>32120.47</v>
       </c>
       <c r="G97">
-        <v>13.065899999999999</v>
+        <v>12.863099999999999</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>77.817791548499002</v>
+        <v>78.447220930715005</v>
       </c>
       <c r="C98">
-        <v>78.358912136002004</v>
+        <v>78.358912151878002</v>
       </c>
       <c r="D98">
         <v>34.801952208933002</v>
@@ -3472,18 +3505,18 @@
         <v>30391.61</v>
       </c>
       <c r="G98">
-        <v>13.0098</v>
+        <v>12.8019</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>77.042083581214001</v>
+        <v>77.296018592769997</v>
       </c>
       <c r="C99">
-        <v>74.848797459638007</v>
+        <v>74.848797476792996</v>
       </c>
       <c r="D99">
         <v>34.258568869686002</v>
@@ -3495,18 +3528,18 @@
         <v>31634.54</v>
       </c>
       <c r="G99">
-        <v>12.776899999999999</v>
+        <v>12.942399999999999</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>83.847590781728002</v>
+        <v>82.564368161161994</v>
       </c>
       <c r="C100">
-        <v>67.694859275629</v>
+        <v>67.694859290132996</v>
       </c>
       <c r="D100">
         <v>34.669094444700001</v>
@@ -3518,18 +3551,18 @@
         <v>33266.43</v>
       </c>
       <c r="G100">
-        <v>12.3306</v>
+        <v>12.573700000000001</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>82.217903937654995</v>
+        <v>82.546060547216001</v>
       </c>
       <c r="C101">
-        <v>84.177665688112</v>
+        <v>84.177665710320994</v>
       </c>
       <c r="D101">
         <v>35.036058935423</v>
@@ -3541,18 +3574,18 @@
         <v>32687.32</v>
       </c>
       <c r="G101">
-        <v>12.262600000000001</v>
+        <v>12.2302</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>82.731904810404004</v>
+        <v>83.635547138142996</v>
       </c>
       <c r="C102">
-        <v>93.927245431374004</v>
+        <v>93.927245454949997</v>
       </c>
       <c r="D102">
         <v>35.593787418353003</v>
@@ -3564,18 +3597,18 @@
         <v>32038.53</v>
       </c>
       <c r="G102">
-        <v>12.9146</v>
+        <v>12.742800000000001</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
-        <v>84.096843547874997</v>
+        <v>83.583960623210004</v>
       </c>
       <c r="C103">
-        <v>95.324306317098007</v>
+        <v>95.324306335537003</v>
       </c>
       <c r="D103">
         <v>36.779916995592998</v>
@@ -3587,18 +3620,18 @@
         <v>31156.97</v>
       </c>
       <c r="G103">
-        <v>12.844099999999999</v>
+        <v>12.7193</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
-        <v>83.780237705675006</v>
+        <v>83.672563591957996</v>
       </c>
       <c r="C104">
-        <v>88.868066237196999</v>
+        <v>88.868066246189002</v>
       </c>
       <c r="D104">
         <v>36.927883087241</v>
@@ -3610,18 +3643,18 @@
         <v>32308.74</v>
       </c>
       <c r="G104">
-        <v>12.6455</v>
+        <v>12.818899999999999</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B105">
-        <v>82.859897309326996</v>
+        <v>83.134777345207993</v>
       </c>
       <c r="C105">
-        <v>65.733078089390006</v>
+        <v>65.733078089106996</v>
       </c>
       <c r="D105">
         <v>37.200570089579998</v>
@@ -3633,18 +3666,18 @@
         <v>31679.85</v>
       </c>
       <c r="G105">
-        <v>13.1676</v>
+        <v>12.769500000000001</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B106">
-        <v>83.531292265076004</v>
+        <v>83.249270201927004</v>
       </c>
       <c r="C106">
-        <v>65.647687095191003</v>
+        <v>65.647687089574006</v>
       </c>
       <c r="D106">
         <v>38.33026169163</v>
@@ -3656,18 +3689,18 @@
         <v>33330.339999999997</v>
       </c>
       <c r="G106">
-        <v>12.5998</v>
+        <v>12.7997</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107">
-        <v>84.516498317832998</v>
+        <v>85.199379631707998</v>
       </c>
       <c r="C107">
-        <v>73.613893384630003</v>
+        <v>73.613893369595999</v>
       </c>
       <c r="D107">
         <v>37.408578165013999</v>
@@ -3679,18 +3712,18 @@
         <v>35568.22</v>
       </c>
       <c r="G107">
-        <v>12.338699999999999</v>
+        <v>12.4374</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B108">
-        <v>86.268243494773998</v>
+        <v>85.865653038293004</v>
       </c>
       <c r="C108">
-        <v>101.65961890646</v>
+        <v>101.65961886200201</v>
       </c>
       <c r="D108">
         <v>37.177350050835003</v>
@@ -3702,18 +3735,18 @@
         <v>36817.32</v>
       </c>
       <c r="G108">
-        <v>12.4664</v>
+        <v>12.3391</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109">
-        <v>86.361908658581996</v>
+        <v>85.779269032670001</v>
       </c>
       <c r="C109">
-        <v>93.547834776856007</v>
+        <v>93.547834721498006</v>
       </c>
       <c r="D109">
         <v>38.176654187144997</v>
@@ -3725,18 +3758,18 @@
         <v>38550.79</v>
       </c>
       <c r="G109">
-        <v>12.349600000000001</v>
+        <v>12.388500000000001</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B110">
-        <v>81.059540333585005</v>
+        <v>81.945286600323001</v>
       </c>
       <c r="C110">
-        <v>79.408239553841</v>
+        <v>79.408239492665999</v>
       </c>
       <c r="D110">
         <v>38.462362621981001</v>
@@ -3748,18 +3781,18 @@
         <v>36982.239999999998</v>
       </c>
       <c r="G110">
-        <v>12.151899999999999</v>
+        <v>12.1258</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111">
-        <v>80.115614906427993</v>
+        <v>80.380154014412</v>
       </c>
       <c r="C111">
-        <v>70.907182713568005</v>
+        <v>70.907182655789001</v>
       </c>
       <c r="D111">
         <v>38.441310674972001</v>
@@ -3771,18 +3804,18 @@
         <v>37019.699999999997</v>
       </c>
       <c r="G111">
-        <v>12.106199999999999</v>
+        <v>12.0703</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B112">
-        <v>87.173673942253004</v>
+        <v>85.773559683469003</v>
       </c>
       <c r="C112">
-        <v>73.788636364672001</v>
+        <v>73.788636298667001</v>
       </c>
       <c r="D112">
         <v>38.323262246935002</v>
@@ -3794,18 +3827,18 @@
         <v>37440.51</v>
       </c>
       <c r="G112">
-        <v>11.9084</v>
+        <v>11.9992</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113">
-        <v>82.957170323216005</v>
+        <v>83.689647829465997</v>
       </c>
       <c r="C113">
-        <v>74.688351123885994</v>
+        <v>74.68835105558</v>
       </c>
       <c r="D113">
         <v>37.626520746848001</v>
@@ -3817,18 +3850,18 @@
         <v>36962.620000000003</v>
       </c>
       <c r="G113">
-        <v>11.527799999999999</v>
+        <v>11.718400000000001</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B114">
-        <v>86.038631757133004</v>
+        <v>86.324319430417006</v>
       </c>
       <c r="C114">
-        <v>84.999197686502995</v>
+        <v>84.999197608819003</v>
       </c>
       <c r="D114">
         <v>37.359706575395002</v>
@@ -3840,18 +3873,18 @@
         <v>35832.79</v>
       </c>
       <c r="G114">
-        <v>11.577999999999999</v>
+        <v>11.6533</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B115">
-        <v>86.875162948750997</v>
+        <v>86.581991701193999</v>
       </c>
       <c r="C115">
-        <v>81.449653210389997</v>
+        <v>81.449653154098996</v>
       </c>
       <c r="D115">
         <v>38.767404368535999</v>
@@ -3863,18 +3896,18 @@
         <v>36558.07</v>
       </c>
       <c r="G115">
-        <v>11.723000000000001</v>
+        <v>11.805999999999999</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B116">
-        <v>86.130939632354995</v>
+        <v>86.827438201744997</v>
       </c>
       <c r="C116">
-        <v>86.846025452535997</v>
+        <v>86.846025413825004</v>
       </c>
       <c r="D116">
         <v>39.753703316429998</v>
@@ -3886,18 +3919,18 @@
         <v>35999.339999999997</v>
       </c>
       <c r="G116">
-        <v>11.7425</v>
+        <v>11.672599999999999</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B117">
-        <v>87.289965518450998</v>
+        <v>86.706910676144005</v>
       </c>
       <c r="C117">
-        <v>69.141855916387001</v>
+        <v>69.141855912205997</v>
       </c>
       <c r="D117">
         <v>38.902257492951001</v>
@@ -3909,18 +3942,18 @@
         <v>35721.1</v>
       </c>
       <c r="G117">
-        <v>12.348000000000001</v>
+        <v>12.2319</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B118">
-        <v>86.729544982625001</v>
+        <v>86.319620916125004</v>
       </c>
       <c r="C118">
-        <v>63.564331574529</v>
+        <v>63.564331588607999</v>
       </c>
       <c r="D118">
         <v>38.482258123392</v>
@@ -3932,18 +3965,18 @@
         <v>33503.279999999999</v>
       </c>
       <c r="G118">
-        <v>13.7994</v>
+        <v>13.044499999999999</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B119">
-        <v>87.547271220408007</v>
+        <v>88.503133555372003</v>
       </c>
       <c r="C119">
-        <v>73.621625334640001</v>
+        <v>73.621625383430001</v>
       </c>
       <c r="D119">
         <v>37.709374678644998</v>
@@ -3955,18 +3988,18 @@
         <v>36159.99</v>
       </c>
       <c r="G119">
-        <v>13.180199999999999</v>
+        <v>13.435</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B120">
-        <v>90.786459870936</v>
+        <v>90.232153931040997</v>
       </c>
       <c r="C120">
-        <v>100.817286384862</v>
+        <v>100.81728653667101</v>
       </c>
       <c r="D120">
         <v>37.423838980920998</v>
@@ -3978,18 +4011,18 @@
         <v>36829.15</v>
       </c>
       <c r="G120">
-        <v>13.61</v>
+        <v>13.699299999999999</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B121">
-        <v>89.206822396958003</v>
+        <v>89.092604205631005</v>
       </c>
       <c r="C121">
-        <v>98.930386416583005</v>
+        <v>98.930386632034995</v>
       </c>
       <c r="D121">
         <v>37.714854775456999</v>
@@ -4001,18 +4034,18 @@
         <v>37077.519999999997</v>
       </c>
       <c r="G121">
-        <v>13.9476</v>
+        <v>13.7689</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B122">
-        <v>85.357613163061004</v>
+        <v>85.641061122764</v>
       </c>
       <c r="C122">
-        <v>80.477267467486001</v>
+        <v>80.477267695711006</v>
       </c>
       <c r="D122">
         <v>39.360421363222997</v>
@@ -4024,18 +4057,18 @@
         <v>37422.68</v>
       </c>
       <c r="G122">
-        <v>13.0077</v>
+        <v>13.4178</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B123">
-        <v>85.296764781077002</v>
+        <v>84.287757634027002</v>
       </c>
       <c r="C123">
-        <v>75.662665909097996</v>
+        <v>75.662666145714994</v>
       </c>
       <c r="D123">
         <v>38.980432396401</v>
@@ -4047,18 +4080,18 @@
         <v>37816.69</v>
       </c>
       <c r="G123">
-        <v>12.789099999999999</v>
+        <v>12.783099999999999</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B124">
-        <v>90.120110958791003</v>
+        <v>89.222551114783997</v>
       </c>
       <c r="C124">
-        <v>75.991521730770998</v>
+        <v>75.991521981372998</v>
       </c>
       <c r="D124">
         <v>38.875000703174997</v>
@@ -4070,18 +4103,18 @@
         <v>39521.24</v>
       </c>
       <c r="G124">
-        <v>12.8093</v>
+        <v>12.7567</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B125">
-        <v>86.670871276187</v>
+        <v>88.080122681372004</v>
       </c>
       <c r="C125">
-        <v>80.497306683873006</v>
+        <v>80.497306965934996</v>
       </c>
       <c r="D125">
         <v>40.224532607652002</v>
@@ -4093,18 +4126,18 @@
         <v>39461</v>
       </c>
       <c r="G125">
-        <v>12.994199999999999</v>
+        <v>13.069699999999999</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B126">
-        <v>90.125978091285006</v>
+        <v>89.455247573492997</v>
       </c>
       <c r="C126">
-        <v>89.433391139674001</v>
+        <v>89.433391441550995</v>
       </c>
       <c r="D126">
         <v>39.732253561534002</v>
@@ -4116,18 +4149,18 @@
         <v>37872.949999999997</v>
       </c>
       <c r="G126">
-        <v>14.3047</v>
+        <v>13.663399999999999</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B127">
-        <v>89.788374193237999</v>
+        <v>89.794086068870996</v>
       </c>
       <c r="C127">
-        <v>101.756729496677</v>
+        <v>101.75672980009401</v>
       </c>
       <c r="D127">
         <v>39.713253382883003</v>
@@ -4139,18 +4172,18 @@
         <v>40199.550000000003</v>
       </c>
       <c r="G127">
-        <v>13.4084</v>
+        <v>13.9192</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B128">
-        <v>89.914964086487004</v>
+        <v>90.213172881901002</v>
       </c>
       <c r="C128">
-        <v>89.981739491802003</v>
+        <v>89.981739637855</v>
       </c>
       <c r="D128">
         <v>41.147825546828003</v>
@@ -4162,18 +4195,18 @@
         <v>40704.28</v>
       </c>
       <c r="G128">
-        <v>13.283300000000001</v>
+        <v>13.366099999999999</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B129">
-        <v>89.448408857274998</v>
+        <v>88.844446127165</v>
       </c>
       <c r="C129">
-        <v>71.178942010791005</v>
+        <v>71.178942023719003</v>
       </c>
       <c r="D129">
         <v>40.783200354222998</v>
@@ -4185,18 +4218,18 @@
         <v>39421.65</v>
       </c>
       <c r="G129">
-        <v>13.257099999999999</v>
+        <v>13.1845</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B130">
-        <v>87.314056911435003</v>
+        <v>88.319069960155005</v>
       </c>
       <c r="C130">
-        <v>60.127363883280999</v>
+        <v>60.127363836363998</v>
       </c>
       <c r="D130">
         <v>39.355022500154</v>
@@ -4208,18 +4241,18 @@
         <v>40866.959999999999</v>
       </c>
       <c r="G130">
-        <v>12.8695</v>
+        <v>12.939399999999999</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B131">
-        <v>91.364216660056002</v>
+        <v>90.753696723738997</v>
       </c>
       <c r="C131">
-        <v>75.573902615695999</v>
+        <v>75.573902425523002</v>
       </c>
       <c r="D131">
         <v>39.629339806128002</v>
@@ -4231,18 +4264,18 @@
         <v>41619.96</v>
       </c>
       <c r="G131">
-        <v>13.091100000000001</v>
+        <v>12.891</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B132">
-        <v>93.410554529875</v>
+        <v>92.969008525264002</v>
       </c>
       <c r="C132">
-        <v>112.927838947151</v>
+        <v>112.927838291199</v>
       </c>
       <c r="D132">
         <v>39.121394785678</v>
@@ -4254,18 +4287,18 @@
         <v>41833.519999999997</v>
       </c>
       <c r="G132">
-        <v>12.9268</v>
+        <v>13.0746</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B133">
-        <v>90.418160143544995</v>
+        <v>91.405488820971996</v>
       </c>
       <c r="C133">
-        <v>106.169893500814</v>
+        <v>106.169892632078</v>
       </c>
       <c r="D133">
         <v>41.139502632716002</v>
@@ -4277,18 +4310,18 @@
         <v>43705.83</v>
       </c>
       <c r="G133">
-        <v>12.9658</v>
+        <v>12.8705</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B134">
-        <v>87.662036490369005</v>
+        <v>87.009585611117004</v>
       </c>
       <c r="C134">
-        <v>88.040579502176001</v>
+        <v>88.040578573969</v>
       </c>
       <c r="D134">
         <v>41.613375849309001</v>
@@ -4300,18 +4333,18 @@
         <v>45278.06</v>
       </c>
       <c r="G134">
-        <v>12.7094</v>
+        <v>12.699</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B135">
-        <v>85.139133974268006</v>
+        <v>85.419715570335995</v>
       </c>
       <c r="C135">
-        <v>78.031284717126994</v>
+        <v>78.031283838468994</v>
       </c>
       <c r="D135">
         <v>39.688212720411997</v>
@@ -4323,18 +4356,18 @@
         <v>44120.99</v>
       </c>
       <c r="G135">
-        <v>12.779500000000001</v>
+        <v>12.722899999999999</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B136">
-        <v>87.348826065281003</v>
+        <v>89.895711426749003</v>
       </c>
       <c r="C136">
-        <v>68.609070955744997</v>
+        <v>68.609070249691996</v>
       </c>
       <c r="D136">
         <v>39.933931587186002</v>
@@ -4346,18 +4379,18 @@
         <v>44077.09</v>
       </c>
       <c r="G136">
-        <v>12.3612</v>
+        <v>12.524699999999999</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B137">
-        <v>90.458044093774006</v>
+        <v>88.192812110473994</v>
       </c>
       <c r="C137">
-        <v>86.083372084697999</v>
+        <v>86.083370962691006</v>
       </c>
       <c r="D137">
         <v>39.836111711187002</v>
@@ -4369,18 +4402,18 @@
         <v>42263.48</v>
       </c>
       <c r="G137">
-        <v>12.1456</v>
+        <v>12.205</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B138">
-        <v>91.668921836161999</v>
+        <v>91.050459842937997</v>
       </c>
       <c r="C138">
-        <v>95.898813367271998</v>
+        <v>95.898812149424003</v>
       </c>
       <c r="D138">
         <v>39.447116122771</v>
@@ -4392,18 +4425,18 @@
         <v>41588.32</v>
       </c>
       <c r="G138">
-        <v>12.8035</v>
+        <v>12.311500000000001</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B139">
-        <v>89.262238827106998</v>
+        <v>90.289493354827002</v>
       </c>
       <c r="C139">
-        <v>103.334935929012</v>
+        <v>103.334934835658</v>
       </c>
       <c r="D139">
         <v>38.770561839289002</v>
@@ -4415,18 +4448,18 @@
         <v>40623.300000000003</v>
       </c>
       <c r="G139">
-        <v>13.027900000000001</v>
+        <v>12.9596</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B140">
-        <v>91.106923770907997</v>
+        <v>90.498413460549997</v>
       </c>
       <c r="C140">
-        <v>94.065230896944996</v>
+        <v>94.065230339237999</v>
       </c>
       <c r="D140">
         <v>40.656212356296002</v>
@@ -4438,18 +4471,18 @@
         <v>40837.879999999997</v>
       </c>
       <c r="G140">
-        <v>12.846399999999999</v>
+        <v>12.7659</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B141">
-        <v>90.191413720808995</v>
+        <v>90.075342360017004</v>
       </c>
       <c r="C141">
-        <v>72.091576464122994</v>
+        <v>72.091576414859006</v>
       </c>
       <c r="D141">
         <v>40.530821931584001</v>
@@ -4461,18 +4494,18 @@
         <v>39492.370000000003</v>
       </c>
       <c r="G141">
-        <v>13.3415</v>
+        <v>12.9178</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B142">
-        <v>88.218546391496005</v>
+        <v>88.874458660924006</v>
       </c>
       <c r="C142">
-        <v>63.912108864800999</v>
+        <v>63.912109051239</v>
       </c>
       <c r="D142">
         <v>39.182486798399999</v>
@@ -4484,18 +4517,18 @@
         <v>40185.230000000003</v>
       </c>
       <c r="G142">
-        <v>13.1747</v>
+        <v>13.075900000000001</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B143">
-        <v>92.824761259767996</v>
+        <v>92.134160575300001</v>
       </c>
       <c r="C143">
-        <v>83.419765751857994</v>
+        <v>83.419766567495003</v>
       </c>
       <c r="D143">
         <v>38.077522808406997</v>
@@ -4507,18 +4540,18 @@
         <v>41038.65</v>
       </c>
       <c r="G143">
-        <v>13.0067</v>
+        <v>12.9992</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B144">
-        <v>93.048242861844997</v>
+        <v>93.054307040321007</v>
       </c>
       <c r="C144">
-        <v>108.935086173371</v>
+        <v>108.935088377635</v>
       </c>
       <c r="D144">
         <v>36.946459914668999</v>
@@ -4530,18 +4563,18 @@
         <v>42499.13</v>
       </c>
       <c r="G144">
-        <v>13.110099999999999</v>
+        <v>13.079599999999999</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B145">
-        <v>92.094950630314997</v>
+        <v>92.400402119321001</v>
       </c>
       <c r="C145">
-        <v>111.054233623103</v>
+        <v>111.054236969862</v>
       </c>
       <c r="D145">
         <v>37.370687475109001</v>
@@ -4553,18 +4586,18 @@
         <v>42727.09</v>
       </c>
       <c r="G145">
-        <v>13.084300000000001</v>
+        <v>13.0076</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B146">
-        <v>88.055324438121005</v>
+        <v>87.460845449060002</v>
       </c>
       <c r="C146">
-        <v>86.271807246397003</v>
+        <v>86.271810477605996</v>
       </c>
       <c r="D146">
         <v>35.55082196899</v>
@@ -4576,18 +4609,18 @@
         <v>40879.75</v>
       </c>
       <c r="G146">
-        <v>13.376899999999999</v>
+        <v>13.223000000000001</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B147">
-        <v>86.924389672621004</v>
+        <v>87.210600972948995</v>
       </c>
       <c r="C147">
-        <v>85.741023024301001</v>
+        <v>85.741026876134001</v>
       </c>
       <c r="D147">
         <v>35.734569280526998</v>
@@ -4599,18 +4632,18 @@
         <v>38782.89</v>
       </c>
       <c r="G147">
-        <v>13.2379</v>
+        <v>13.280799999999999</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B148">
-        <v>91.513084907484995</v>
+        <v>91.708777928421</v>
       </c>
       <c r="C148">
-        <v>73.373584263910004</v>
+        <v>73.373587210329006</v>
       </c>
       <c r="D148">
         <v>37.135146875798</v>
@@ -4622,18 +4655,18 @@
         <v>40461.599999999999</v>
       </c>
       <c r="G148">
-        <v>13.0549</v>
+        <v>13.1951</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B149">
-        <v>90.606822317194002</v>
+        <v>90.843416601008997</v>
       </c>
       <c r="C149">
-        <v>87.090816088742997</v>
+        <v>87.090820249944002</v>
       </c>
       <c r="D149">
         <v>37.610133678604001</v>
@@ -4645,18 +4678,18 @@
         <v>40711.56</v>
       </c>
       <c r="G149">
-        <v>13.0901</v>
+        <v>13.0708</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B150">
-        <v>93.771731551873003</v>
+        <v>93.651750216579998</v>
       </c>
       <c r="C150">
-        <v>101.638109685038</v>
+        <v>101.63811462724099</v>
       </c>
       <c r="D150">
         <v>37.751338610127</v>
@@ -4668,18 +4701,18 @@
         <v>41362.51</v>
       </c>
       <c r="G150">
-        <v>12.860900000000001</v>
+        <v>12.9247</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B151">
-        <v>92.240837913518007</v>
+        <v>92.926341732986003</v>
       </c>
       <c r="C151">
-        <v>102.898031910486</v>
+        <v>102.898035860615</v>
       </c>
       <c r="D151">
         <v>37.904949226010999</v>
@@ -4691,18 +4724,18 @@
         <v>42737.17</v>
       </c>
       <c r="G151">
-        <v>12.9712</v>
+        <v>12.995799999999999</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B152">
-        <v>94.151086407885003</v>
+        <v>93.450291972260004</v>
       </c>
       <c r="C152">
-        <v>97.567371783216998</v>
+        <v>97.567373935098004</v>
       </c>
       <c r="D152">
         <v>37.551813280327003</v>
@@ -4714,18 +4747,18 @@
         <v>43817.69</v>
       </c>
       <c r="G152">
-        <v>13.226900000000001</v>
+        <v>12.990399999999999</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B153">
-        <v>91.269250295223003</v>
+        <v>92.006983051806003</v>
       </c>
       <c r="C153">
-        <v>76.367087234055006</v>
+        <v>76.367087399913999</v>
       </c>
       <c r="D153">
         <v>37.450159922914999</v>
@@ -4737,18 +4770,18 @@
         <v>45628.09</v>
       </c>
       <c r="G153">
-        <v>13.0763</v>
+        <v>13.140599999999999</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B154">
-        <v>91.305022134552004</v>
+        <v>90.879160878440999</v>
       </c>
       <c r="C154">
-        <v>67.752932796371994</v>
+        <v>67.752931922024004</v>
       </c>
       <c r="D154">
         <v>38.219888179972003</v>
@@ -4760,18 +4793,18 @@
         <v>44985.66</v>
       </c>
       <c r="G154">
-        <v>13.433</v>
+        <v>13.235200000000001</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B155">
-        <v>95.618831810000998</v>
+        <v>94.973807063695006</v>
       </c>
       <c r="C155">
-        <v>80.235727415162998</v>
+        <v>80.235724512085</v>
       </c>
       <c r="D155">
         <v>37.693542023310002</v>
@@ -4783,18 +4816,18 @@
         <v>45027.519999999997</v>
       </c>
       <c r="G155">
-        <v>13.4773</v>
+        <v>13.4763</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B156">
-        <v>94.901717686577996</v>
+        <v>95.994415298332996</v>
       </c>
       <c r="C156">
-        <v>110.506176726465</v>
+        <v>110.50616829773</v>
       </c>
       <c r="D156">
         <v>38.475968975641003</v>
@@ -4806,18 +4839,18 @@
         <v>44190.47</v>
       </c>
       <c r="G156">
-        <v>13.8965</v>
+        <v>13.621600000000001</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B157">
-        <v>95.498426289845</v>
+        <v>94.860081976748006</v>
       </c>
       <c r="C157">
-        <v>116.221277101331</v>
+        <v>116.221263906758</v>
       </c>
       <c r="D157">
         <v>38.691437136761003</v>
@@ -4829,18 +4862,18 @@
         <v>43145.66</v>
       </c>
       <c r="G157">
-        <v>14.741400000000001</v>
+        <v>14.5129</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B158">
-        <v>90.618368320502995</v>
+        <v>90.501794790833003</v>
       </c>
       <c r="C158">
-        <v>93.437850135386</v>
+        <v>93.437836777114001</v>
       </c>
       <c r="D158">
         <v>38.062504132065001</v>
@@ -4852,18 +4885,18 @@
         <v>40950.58</v>
       </c>
       <c r="G158">
-        <v>14.9885</v>
+        <v>14.692600000000001</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B159">
-        <v>89.267735409303995</v>
+        <v>89.562329479236993</v>
       </c>
       <c r="C159">
-        <v>87.836427664781993</v>
+        <v>87.836413600038995</v>
       </c>
       <c r="D159">
         <v>37.491142610506998</v>
@@ -4875,18 +4908,18 @@
         <v>44190.17</v>
       </c>
       <c r="G159">
-        <v>14.955299999999999</v>
+        <v>14.9213</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B160">
-        <v>94.331541870421006</v>
+        <v>93.822626332976995</v>
       </c>
       <c r="C160">
-        <v>76.092626742289994</v>
+        <v>76.092615862748005</v>
       </c>
       <c r="D160">
         <v>38.505218872516998</v>
@@ -4898,18 +4931,18 @@
         <v>43724.78</v>
       </c>
       <c r="G160">
-        <v>15.264699999999999</v>
+        <v>15.228300000000001</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B161">
-        <v>92.929379446205004</v>
+        <v>93.427189325648996</v>
       </c>
       <c r="C161">
-        <v>87.801227389530993</v>
+        <v>87.801213247145995</v>
       </c>
       <c r="D161">
         <v>37.842864420837998</v>
@@ -4921,18 +4954,18 @@
         <v>44582.39</v>
       </c>
       <c r="G161">
-        <v>15.3714</v>
+        <v>15.2262</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B162">
-        <v>94.018450628531994</v>
+        <v>94.778210921173994</v>
       </c>
       <c r="C162">
-        <v>102.836206598768</v>
+        <v>102.836189778639</v>
       </c>
       <c r="D162">
         <v>38.031691558285999</v>
@@ -4944,18 +4977,18 @@
         <v>44703.62</v>
       </c>
       <c r="G162">
-        <v>15.381500000000001</v>
+        <v>15.2645</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B163">
-        <v>95.598730186151002</v>
+        <v>95.153134010382999</v>
       </c>
       <c r="C163">
-        <v>98.480766886672001</v>
+        <v>98.480754731473994</v>
       </c>
       <c r="D163">
         <v>39.111922237709003</v>
@@ -4967,18 +5000,18 @@
         <v>45053.7</v>
       </c>
       <c r="G163">
-        <v>15.6854</v>
+        <v>15.483000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B164">
-        <v>96.244186709492993</v>
+        <v>95.594589851790005</v>
       </c>
       <c r="C164">
-        <v>91.336649305509994</v>
+        <v>91.336643036238996</v>
       </c>
       <c r="D164">
         <v>38.131884189947002</v>
@@ -4990,18 +5023,18 @@
         <v>44752.93</v>
       </c>
       <c r="G164">
-        <v>16.077200000000001</v>
+        <v>15.9396</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B165">
-        <v>93.906884866571005</v>
+        <v>94.932593495885996</v>
       </c>
       <c r="C165">
-        <v>75.706359928365998</v>
+        <v>75.706359167048006</v>
       </c>
       <c r="D165">
         <v>37.383557196311997</v>
@@ -5013,18 +5046,18 @@
         <v>43721.96</v>
       </c>
       <c r="G165">
-        <v>16.782900000000001</v>
+        <v>16.536799999999999</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B166">
-        <v>95.487849559279994</v>
+        <v>94.905469065353998</v>
       </c>
       <c r="C166">
-        <v>69.968934544064993</v>
+        <v>69.968937148975002</v>
       </c>
       <c r="D166">
         <v>37.449011862978999</v>
@@ -5036,18 +5069,18 @@
         <v>42632.54</v>
       </c>
       <c r="G166">
-        <v>16.9053</v>
+        <v>16.857800000000001</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B167">
-        <v>97.291796805640004</v>
+        <v>97.167236297311007</v>
       </c>
       <c r="C167">
-        <v>80.927279933644002</v>
+        <v>80.927288838755999</v>
       </c>
       <c r="D167">
         <v>37.813079113192003</v>
@@ -5059,18 +5092,18 @@
         <v>44542.76</v>
       </c>
       <c r="G167">
-        <v>16.5244</v>
+        <v>16.564</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B168">
-        <v>96.719780210416005</v>
+        <v>97.438620270968997</v>
       </c>
       <c r="C168">
-        <v>109.881289865111</v>
+        <v>109.88131685600899</v>
       </c>
       <c r="D168">
         <v>38.182935259201997</v>
@@ -5082,18 +5115,18 @@
         <v>43418.55</v>
       </c>
       <c r="G168">
-        <v>16.585599999999999</v>
+        <v>16.6357</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B169">
-        <v>97.507999245090005</v>
+        <v>96.782307884475003</v>
       </c>
       <c r="C169">
-        <v>127.128307066996</v>
+        <v>127.12835701693599</v>
       </c>
       <c r="D169">
         <v>38.368540211141998</v>
@@ -5105,18 +5138,18 @@
         <v>42977.5</v>
       </c>
       <c r="G169">
-        <v>17.248699999999999</v>
+        <v>17.066600000000001</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B170">
-        <v>91.735212811975998</v>
+        <v>92.476751035481996</v>
       </c>
       <c r="C170">
-        <v>97.767299096122997</v>
+        <v>97.767347056768003</v>
       </c>
       <c r="D170">
         <v>38.181521075725001</v>
@@ -5128,18 +5161,18 @@
         <v>43630.77</v>
       </c>
       <c r="G170">
-        <v>18.1935</v>
+        <v>18.072800000000001</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B171">
-        <v>92.725315287884996</v>
+        <v>91.760313798468005</v>
       </c>
       <c r="C171">
-        <v>87.310864004273995</v>
+        <v>87.310910690631999</v>
       </c>
       <c r="D171">
         <v>36.732083562291997</v>
@@ -5151,18 +5184,18 @@
         <v>43714.93</v>
       </c>
       <c r="G171">
-        <v>18.102</v>
+        <v>18.473099999999999</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B172">
-        <v>94.127303896792995</v>
+        <v>95.379157273581995</v>
       </c>
       <c r="C172">
-        <v>69.883284512187998</v>
+        <v>69.883314992573005</v>
       </c>
       <c r="D172">
         <v>36.814432418720997</v>
@@ -5174,18 +5207,18 @@
         <v>45881.08</v>
       </c>
       <c r="G172">
-        <v>17.236999999999998</v>
+        <v>17.649000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B173">
-        <v>95.749506219249</v>
+        <v>93.795098817427998</v>
       </c>
       <c r="C173">
-        <v>90.418275355144004</v>
+        <v>90.418328223393004</v>
       </c>
       <c r="D173">
         <v>36.713858243741001</v>
@@ -5197,18 +5230,18 @@
         <v>45784.77</v>
       </c>
       <c r="G173">
-        <v>17.1767</v>
+        <v>17.4877</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B174">
-        <v>96.000095211526002</v>
+        <v>96.318351739560001</v>
       </c>
       <c r="C174">
-        <v>97.270740993478995</v>
+        <v>97.270796581135002</v>
       </c>
       <c r="D174">
         <v>37.484803883049999</v>
@@ -5220,18 +5253,18 @@
         <v>45459.45</v>
       </c>
       <c r="G174">
-        <v>18.411799999999999</v>
+        <v>18.154199999999999</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B175">
-        <v>97.383344358074993</v>
+        <v>97.054550766473</v>
       </c>
       <c r="C175">
-        <v>108.831494329124</v>
+        <v>108.831549143098</v>
       </c>
       <c r="D175">
         <v>38.349095003102001</v>
@@ -5243,18 +5276,18 @@
         <v>45966.49</v>
       </c>
       <c r="G175">
-        <v>18.464600000000001</v>
+        <v>18.652999999999999</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B176">
-        <v>95.394397799594003</v>
+        <v>96.165336984560994</v>
       </c>
       <c r="C176">
-        <v>92.78609189334</v>
+        <v>92.786117915671994</v>
       </c>
       <c r="D176">
         <v>36.506041112359</v>
@@ -5266,18 +5299,18 @@
         <v>46660.67</v>
       </c>
       <c r="G176">
-        <v>18.7837</v>
+        <v>18.601400000000002</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B177">
-        <v>96.882042007883001</v>
+        <v>96.234836981626003</v>
       </c>
       <c r="C177">
-        <v>87.061221361787005</v>
+        <v>87.061228182904998</v>
       </c>
       <c r="D177">
         <v>35.655436898837998</v>
@@ -5289,18 +5322,18 @@
         <v>47541.32</v>
       </c>
       <c r="G177">
-        <v>18.8611</v>
+        <v>18.474900000000002</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B178">
-        <v>95.737167365266998</v>
+        <v>95.284002624779006</v>
       </c>
       <c r="C178">
-        <v>72.483314939745</v>
+        <v>72.483306639930007</v>
       </c>
       <c r="D178">
         <v>34.754994253749999</v>
@@ -5312,18 +5345,18 @@
         <v>47245.8</v>
       </c>
       <c r="G178">
-        <v>19.377600000000001</v>
+        <v>19.192399999999999</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B179">
-        <v>97.662658168115001</v>
+        <v>98.729614177735996</v>
       </c>
       <c r="C179">
-        <v>84.298048956819002</v>
+        <v>84.298016772268994</v>
       </c>
       <c r="D179">
         <v>35.031896434495003</v>
@@ -5335,18 +5368,18 @@
         <v>48009.279999999999</v>
       </c>
       <c r="G179">
-        <v>18.8887</v>
+        <v>18.892399999999999</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B180">
-        <v>100.849512430011</v>
+        <v>100.234757825496</v>
       </c>
       <c r="C180">
-        <v>116.775678738176</v>
+        <v>116.77557491341901</v>
       </c>
       <c r="D180">
         <v>34.875177957368003</v>
@@ -5355,21 +5388,21 @@
         <v>43.689080044792</v>
       </c>
       <c r="F180">
-        <v>45285.5</v>
+        <v>45315.96</v>
       </c>
       <c r="G180">
-        <v>20.515499999999999</v>
+        <v>20.118500000000001</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B181">
-        <v>99.785591288738004</v>
+        <v>99.658038082920001</v>
       </c>
       <c r="C181">
-        <v>127.895401833675</v>
+        <v>127.89522490207899</v>
       </c>
       <c r="D181">
         <v>35.478418724981999</v>
@@ -5381,18 +5414,18 @@
         <v>45642.9</v>
       </c>
       <c r="G181">
-        <v>20.619399999999999</v>
+        <v>20.520600000000002</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B182">
-        <v>95.147313888778001</v>
+        <v>95.462523051706995</v>
       </c>
       <c r="C182">
-        <v>110.50326505917801</v>
+        <v>110.50305541117299</v>
       </c>
       <c r="D182">
         <v>28.667872479598</v>
@@ -5404,18 +5437,18 @@
         <v>47001.06</v>
       </c>
       <c r="G182">
-        <v>20.790800000000001</v>
+        <v>21.385300000000001</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B183">
-        <v>93.328137359669995</v>
+        <v>93.635715885180005</v>
       </c>
       <c r="C183">
-        <v>84.592400142404003</v>
+        <v>84.592251096968994</v>
       </c>
       <c r="D183">
         <v>31.515609602348999</v>
@@ -5427,18 +5460,18 @@
         <v>46856.79</v>
       </c>
       <c r="G183">
-        <v>19.995699999999999</v>
+        <v>20.290500000000002</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B184">
-        <v>99.882180876967993</v>
+        <v>98.346206852098007</v>
       </c>
       <c r="C184">
-        <v>74.490048242349005</v>
+        <v>74.489928901479999</v>
       </c>
       <c r="D184">
         <v>33.795125366694997</v>
@@ -5450,18 +5483,18 @@
         <v>48541.56</v>
       </c>
       <c r="G184">
-        <v>18.795500000000001</v>
+        <v>19.300999999999998</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B185">
-        <v>94.250918428263006</v>
+        <v>96.171377125768004</v>
       </c>
       <c r="C185">
-        <v>91.616791984301003</v>
+        <v>91.616610057120994</v>
       </c>
       <c r="D185">
         <v>34.934500730947001</v>
@@ -5473,18 +5506,18 @@
         <v>49261.33</v>
       </c>
       <c r="G185">
-        <v>18.959399999999999</v>
+        <v>18.787500000000001</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B186">
-        <v>99.160532458662999</v>
+        <v>98.498613467259005</v>
       </c>
       <c r="C186">
-        <v>98.554199782904007</v>
+        <v>98.55401035621</v>
       </c>
       <c r="D186">
         <v>35.873278680958002</v>
@@ -5496,18 +5529,18 @@
         <v>48788.44</v>
       </c>
       <c r="G186">
-        <v>18.690899999999999</v>
+        <v>18.755700000000001</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B187">
-        <v>99.894631597867999</v>
+        <v>99.422328276447999</v>
       </c>
       <c r="C187">
-        <v>114.404124071635</v>
+        <v>114.40392708925501</v>
       </c>
       <c r="D187">
         <v>36.010357040914002</v>
@@ -5519,18 +5552,18 @@
         <v>49857.49</v>
       </c>
       <c r="G187">
-        <v>18.0626</v>
+        <v>18.1326</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B188">
-        <v>96.513983795048006</v>
+        <v>97.568065518672</v>
       </c>
       <c r="C188">
-        <v>96.553851536172999</v>
+        <v>96.553762545645995</v>
       </c>
       <c r="D188">
         <v>36.488627292064997</v>
@@ -5542,18 +5575,18 @@
         <v>51011.87</v>
       </c>
       <c r="G188">
-        <v>17.864599999999999</v>
+        <v>17.828299999999999</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B189">
-        <v>99.228384165080996</v>
+        <v>98.489506981587994</v>
       </c>
       <c r="C189">
-        <v>81.902714241908001</v>
+        <v>81.902698902807003</v>
       </c>
       <c r="D189">
         <v>36.505500828123999</v>
@@ -5565,18 +5598,18 @@
         <v>51210.48</v>
       </c>
       <c r="G189">
-        <v>17.814499999999999</v>
+        <v>17.806999999999999</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B190">
-        <v>95.757537186538002</v>
+        <v>95.763490663528003</v>
       </c>
       <c r="C190">
-        <v>73.895489204124999</v>
+        <v>73.895519100160001</v>
       </c>
       <c r="D190">
         <v>36.787947686430002</v>
@@ -5588,18 +5621,18 @@
         <v>50346.06</v>
       </c>
       <c r="G190">
-        <v>18.158999999999999</v>
+        <v>17.835699999999999</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B191">
-        <v>99.456509210622997</v>
+        <v>99.785812402184007</v>
       </c>
       <c r="C191">
-        <v>85.902924568407997</v>
+        <v>85.903037986756004</v>
       </c>
       <c r="D191">
         <v>36.436983240153999</v>
@@ -5611,18 +5644,18 @@
         <v>48625.53</v>
       </c>
       <c r="G191">
-        <v>19.1478</v>
+        <v>18.816099999999999</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B192">
-        <v>102.799035518046</v>
+        <v>102.452283912415</v>
       </c>
       <c r="C192">
-        <v>129.32101715020201</v>
+        <v>129.321428901205</v>
       </c>
       <c r="D192">
         <v>36.716793474580001</v>
@@ -5634,18 +5667,18 @@
         <v>47092.44</v>
       </c>
       <c r="G192">
-        <v>18.622900000000001</v>
+        <v>18.915800000000001</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B193">
-        <v>100.82449289261299</v>
+        <v>101.63924288877099</v>
       </c>
       <c r="C193">
-        <v>128.46494304206001</v>
+        <v>128.465538676867</v>
       </c>
       <c r="D193">
         <v>36.315462765375997</v>
@@ -5657,18 +5690,18 @@
         <v>49354.42</v>
       </c>
       <c r="G193">
-        <v>19.6629</v>
+        <v>19.1812</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B194">
-        <v>97.406006083587002</v>
+        <v>96.755336708906</v>
       </c>
       <c r="C194">
-        <v>112.03419373166901</v>
+        <v>112.03490349711301</v>
       </c>
       <c r="D194">
         <v>34.801847205944</v>
@@ -5680,18 +5713,18 @@
         <v>50456.17</v>
       </c>
       <c r="G194">
-        <v>18.6069</v>
+        <v>18.907399999999999</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B195">
-        <v>95.319076819998003</v>
+        <v>95.633280499522996</v>
       </c>
       <c r="C195">
-        <v>92.131257013679999</v>
+        <v>92.131830660770007</v>
       </c>
       <c r="D195">
         <v>34.189339177953002</v>
@@ -5703,18 +5736,18 @@
         <v>47437.93</v>
       </c>
       <c r="G195">
-        <v>18.833100000000002</v>
+        <v>18.6449</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B196">
-        <v>98.984067330138998</v>
+        <v>100.923256947146</v>
       </c>
       <c r="C196">
-        <v>77.898360711544996</v>
+        <v>77.898779452189004</v>
       </c>
       <c r="D196">
         <v>34.336726438239999</v>
@@ -5726,18 +5759,18 @@
         <v>46124.85</v>
       </c>
       <c r="G196">
-        <v>18.270900000000001</v>
+        <v>18.630800000000001</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B197">
-        <v>98.915163384148002</v>
+        <v>97.609807201197</v>
       </c>
       <c r="C197">
-        <v>96.619390394384993</v>
+        <v>96.620041235241004</v>
       </c>
       <c r="D197">
         <v>35.611584664380999</v>
@@ -5749,18 +5782,18 @@
         <v>48358.16</v>
       </c>
       <c r="G197">
-        <v>18.787800000000001</v>
+        <v>18.3872</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B198">
-        <v>102.01300513439401</v>
+        <v>101.25377993825001</v>
       </c>
       <c r="C198">
-        <v>108.578590197669</v>
+        <v>108.579313047244</v>
       </c>
       <c r="D198">
         <v>36.647874828558997</v>
@@ -5772,18 +5805,18 @@
         <v>44662.55</v>
       </c>
       <c r="G198">
-        <v>19.975899999999999</v>
+        <v>19.591000000000001</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B199">
-        <v>101.245824386902</v>
+        <v>101.251862654729</v>
       </c>
       <c r="C199">
-        <v>111.26239131655799</v>
+        <v>111.26298448631201</v>
       </c>
       <c r="D199">
         <v>37.148299568801001</v>
@@ -5795,18 +5828,18 @@
         <v>47663.199999999997</v>
       </c>
       <c r="G199">
-        <v>19.691199999999998</v>
+        <v>20.3032</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B200">
-        <v>100.145973924199</v>
+        <v>100.478100555312</v>
       </c>
       <c r="C200">
-        <v>98.316286838398</v>
+        <v>98.316561439479997</v>
       </c>
       <c r="D200">
         <v>43.341085684473001</v>
@@ -5818,18 +5851,18 @@
         <v>49698.01</v>
       </c>
       <c r="G200">
-        <v>18.645700000000001</v>
+        <v>19.009499999999999</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B201">
-        <v>101.605932756206</v>
+        <v>100.92040954741</v>
       </c>
       <c r="C201">
-        <v>81.073402626952998</v>
+        <v>81.073429683369994</v>
       </c>
       <c r="D201">
         <v>43.005686306386998</v>
@@ -5841,18 +5874,18 @@
         <v>49547.68</v>
       </c>
       <c r="G201">
-        <v>19.179200000000002</v>
+        <v>18.857500000000002</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B202">
-        <v>97.997563463334998</v>
+        <v>99.126053301363001</v>
       </c>
       <c r="C202">
-        <v>73.663477863319002</v>
+        <v>73.663376670377005</v>
       </c>
       <c r="D202">
         <v>42.132704095465002</v>
@@ -5864,18 +5897,18 @@
         <v>49504.160000000003</v>
       </c>
       <c r="G202">
-        <v>18.723099999999999</v>
+        <v>19.0154</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B203">
-        <v>102.342026751601</v>
+        <v>101.65935799437</v>
       </c>
       <c r="C203">
-        <v>82.241053719714998</v>
+        <v>82.240723018249</v>
       </c>
       <c r="D203">
         <v>42.533012467452998</v>
@@ -5887,18 +5920,18 @@
         <v>43942.55</v>
       </c>
       <c r="G203">
-        <v>20.317699999999999</v>
+        <v>19.1859</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B204">
-        <v>104.00535486155</v>
+        <v>103.513876317335</v>
       </c>
       <c r="C204">
-        <v>131.74842310561101</v>
+        <v>131.74700679574801</v>
       </c>
       <c r="D204">
         <v>41.675040786563997</v>
@@ -5910,18 +5943,18 @@
         <v>41732.78</v>
       </c>
       <c r="G204">
-        <v>20.345500000000001</v>
+        <v>20.261199999999999</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B205">
-        <v>100.020005103937</v>
+        <v>101.113366778323</v>
       </c>
       <c r="C205">
-        <v>134.43317248044499</v>
+        <v>134.431050013852</v>
       </c>
       <c r="D205">
         <v>44.865438497928999</v>
@@ -5933,18 +5966,18 @@
         <v>41640.269999999997</v>
       </c>
       <c r="G205">
-        <v>19.651199999999999</v>
+        <v>20.1112</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B206">
-        <v>98.523257711729997</v>
+        <v>97.791738978523</v>
       </c>
       <c r="C206">
-        <v>112.527547148605</v>
+        <v>112.525191647136</v>
       </c>
       <c r="D206">
         <v>45.929883044867999</v>
@@ -5956,18 +5989,18 @@
         <v>43987.94</v>
       </c>
       <c r="G206">
-        <v>19.038799999999998</v>
+        <v>19.165099999999999</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B207">
-        <v>95.934467005502995</v>
+        <v>96.252314837569003</v>
       </c>
       <c r="C207">
-        <v>97.184841796978006</v>
+        <v>97.18277765162</v>
       </c>
       <c r="D207">
         <v>47.826149713221</v>
@@ -5979,18 +6012,18 @@
         <v>42823.81</v>
       </c>
       <c r="G207">
-        <v>19.2607</v>
+        <v>19.204899999999999</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B208">
-        <v>99.928108122549006</v>
+        <v>99.862887629317001</v>
       </c>
       <c r="C208">
-        <v>79.542133835531004</v>
+        <v>79.540766556807</v>
       </c>
       <c r="D208">
         <v>46.341067759577001</v>
@@ -6002,18 +6035,18 @@
         <v>43281.279999999999</v>
       </c>
       <c r="G208">
-        <v>19.3779</v>
+        <v>19.247699999999998</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B209">
-        <v>97.673834858590993</v>
+        <v>98.072417153759005</v>
       </c>
       <c r="C209">
-        <v>94.072427545359005</v>
+        <v>94.070460720228994</v>
       </c>
       <c r="D209">
         <v>45.484973893286003</v>
@@ -6025,18 +6058,18 @@
         <v>44597.32</v>
       </c>
       <c r="G209">
-        <v>19.009899999999998</v>
+        <v>18.9864</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B210">
-        <v>101.33425344825601</v>
+        <v>100.652231382953</v>
       </c>
       <c r="C210">
-        <v>108.366849864374</v>
+        <v>108.36454313495901</v>
       </c>
       <c r="D210">
         <v>44.323546935750997</v>
@@ -6048,18 +6081,18 @@
         <v>42749.16</v>
       </c>
       <c r="G210">
-        <v>19.642600000000002</v>
+        <v>19.119700000000002</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B211">
-        <v>99.864756496479998</v>
+        <v>101.01555581740401</v>
       </c>
       <c r="C211">
-        <v>112.99362693834399</v>
+        <v>112.991693990751</v>
       </c>
       <c r="D211">
         <v>43.665842320727997</v>
@@ -6071,18 +6104,18 @@
         <v>43161.17</v>
       </c>
       <c r="G211">
-        <v>19.2087</v>
+        <v>19.2745</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B212">
-        <v>100.508399218752</v>
+        <v>99.837608948888999</v>
       </c>
       <c r="C212">
-        <v>100.881474978593</v>
+        <v>100.880582154088</v>
       </c>
       <c r="D212">
         <v>43.317695798679999</v>
@@ -6094,18 +6127,18 @@
         <v>40863.089999999997</v>
       </c>
       <c r="G212">
-        <v>18.992899999999999</v>
+        <v>19.0534</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B213">
-        <v>100.13507123274201</v>
+        <v>100.006590538084</v>
       </c>
       <c r="C213">
-        <v>79.071855135866997</v>
+        <v>79.071809972566001</v>
       </c>
       <c r="D213">
         <v>43.819211712737001</v>
@@ -6117,18 +6150,18 @@
         <v>42622.5</v>
       </c>
       <c r="G213">
-        <v>20.069600000000001</v>
+        <v>19.684999999999999</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B214">
-        <v>97.493432242661001</v>
+        <v>98.217363586410002</v>
       </c>
       <c r="C214">
-        <v>78.247983835664002</v>
+        <v>78.248397684097</v>
       </c>
       <c r="D214">
         <v>45.299473488517002</v>
@@ -6140,18 +6173,18 @@
         <v>43011.27</v>
       </c>
       <c r="G214">
-        <v>19.734500000000001</v>
+        <v>19.586500000000001</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B215">
-        <v>100.54338915205599</v>
+        <v>99.792735129557997</v>
       </c>
       <c r="C215">
-        <v>87.113290668548998</v>
+        <v>87.114543896168996</v>
       </c>
       <c r="D215">
         <v>44.059735903125997</v>
@@ -6163,18 +6196,18 @@
         <v>43337.279999999999</v>
       </c>
       <c r="G215">
-        <v>19.194800000000001</v>
+        <v>19.324200000000001</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B216">
-        <v>102.89806536303399</v>
+        <v>102.901974496107</v>
       </c>
       <c r="C216">
-        <v>127.430429537373</v>
+        <v>127.43498099595899</v>
       </c>
       <c r="D216">
         <v>43.840726940102002</v>
@@ -6186,18 +6219,18 @@
         <v>42820.18</v>
       </c>
       <c r="G216">
-        <v>19.5352</v>
+        <v>19.3325</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B217">
-        <v>99.936524009500005</v>
+        <v>100.263390896226</v>
       </c>
       <c r="C217">
-        <v>129.13346236020899</v>
+        <v>129.14017524106299</v>
       </c>
       <c r="D217">
         <v>43.757350301180999</v>
@@ -6209,18 +6242,18 @@
         <v>43541.02</v>
       </c>
       <c r="G217">
-        <v>18.8642</v>
+        <v>19.107099999999999</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B218">
-        <v>98.312220036338999</v>
+        <v>97.643669678731996</v>
       </c>
       <c r="C218">
-        <v>112.588524155839</v>
+        <v>112.596440610782</v>
       </c>
       <c r="D218">
         <v>44.120454102384997</v>
@@ -6232,18 +6265,18 @@
         <v>44108.31</v>
       </c>
       <c r="G218">
-        <v>18.908200000000001</v>
+        <v>18.803999999999998</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B219">
-        <v>95.265917571586996</v>
+        <v>94.649828409820003</v>
       </c>
       <c r="C219">
-        <v>86.719685982344004</v>
+        <v>86.724916097144003</v>
       </c>
       <c r="D219">
         <v>43.329942793901999</v>
@@ -6255,18 +6288,18 @@
         <v>41324.31</v>
       </c>
       <c r="G219">
-        <v>19.776</v>
+        <v>18.8443</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B220">
-        <v>96.930291025206003</v>
+        <v>96.399635458499006</v>
       </c>
       <c r="C220">
-        <v>85.087556527744994</v>
+        <v>85.092803642912997</v>
       </c>
       <c r="D220">
         <v>42.059280695535001</v>
@@ -6278,18 +6311,18 @@
         <v>34554.53</v>
       </c>
       <c r="G220">
-        <v>23.4847</v>
+        <v>22.378399999999999</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B221">
-        <v>76.335282413236001</v>
+        <v>76.741213352187003</v>
       </c>
       <c r="C221">
-        <v>93.769026708439995</v>
+        <v>93.775509425308996</v>
       </c>
       <c r="D221">
         <v>32.223545786244998</v>
@@ -6301,18 +6334,18 @@
         <v>36470.11</v>
       </c>
       <c r="G221">
-        <v>23.9283</v>
+        <v>24.265799999999999</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B222">
-        <v>76.905359549721993</v>
+        <v>77.523814336192004</v>
       </c>
       <c r="C222">
-        <v>109.19370927600001</v>
+        <v>109.201580041369</v>
       </c>
       <c r="D222">
         <v>31.068243908700001</v>
@@ -6324,18 +6357,18 @@
         <v>36122.730000000003</v>
       </c>
       <c r="G222">
-        <v>22.177800000000001</v>
+        <v>23.422999999999998</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B223">
-        <v>86.484866519304006</v>
+        <v>86.078654959632999</v>
       </c>
       <c r="C223">
-        <v>109.65199422633</v>
+        <v>109.658211714017</v>
       </c>
       <c r="D223">
         <v>31.957181906052998</v>
@@ -6347,18 +6380,18 @@
         <v>37716.43</v>
       </c>
       <c r="G223">
-        <v>23.089300000000001</v>
+        <v>22.298999999999999</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B224">
-        <v>90.458169719512</v>
+        <v>89.845644607804005</v>
       </c>
       <c r="C224">
-        <v>109.444474687382</v>
+        <v>109.448097576702</v>
       </c>
       <c r="D224">
         <v>34.417344488575999</v>
@@ -6370,18 +6403,18 @@
         <v>37019.68</v>
       </c>
       <c r="G224">
-        <v>22.2012</v>
+        <v>22.403300000000002</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B225">
-        <v>91.531600398435003</v>
+        <v>92.530644310561996</v>
       </c>
       <c r="C225">
-        <v>81.333500610848006</v>
+        <v>81.333755275345993</v>
       </c>
       <c r="D225">
         <v>35.064783138979998</v>
@@ -6393,18 +6426,18 @@
         <v>36840.730000000003</v>
       </c>
       <c r="G225">
-        <v>21.888000000000002</v>
+        <v>22.2072</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B226">
-        <v>92.964074563563997</v>
+        <v>92.398854695142006</v>
       </c>
       <c r="C226">
-        <v>82.231147970913995</v>
+        <v>82.229805248402002</v>
       </c>
       <c r="D226">
         <v>36.282043642848002</v>
@@ -6416,18 +6449,18 @@
         <v>37458.69</v>
       </c>
       <c r="G226">
-        <v>22.143799999999999</v>
+        <v>21.681000000000001</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B227">
-        <v>96.348881804037006</v>
+        <v>96.231437871843994</v>
       </c>
       <c r="C227">
-        <v>91.922729926044994</v>
+        <v>91.918333931239999</v>
       </c>
       <c r="D227">
         <v>37.891239623548003</v>
@@ -6439,18 +6472,18 @@
         <v>36987.86</v>
       </c>
       <c r="G227">
-        <v>21.250800000000002</v>
+        <v>21.270499999999998</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B228">
-        <v>99.292310797775997</v>
+        <v>100.03879685202099</v>
       </c>
       <c r="C228">
-        <v>129.942405358695</v>
+        <v>129.92680173917401</v>
       </c>
       <c r="D228">
         <v>37.076740993336998</v>
@@ -6462,18 +6495,18 @@
         <v>41778.870000000003</v>
       </c>
       <c r="G228">
-        <v>20.139800000000001</v>
+        <v>20.381900000000002</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B229">
-        <v>97.969949138483997</v>
+        <v>97.254765309023995</v>
       </c>
       <c r="C229">
-        <v>126.307615884925</v>
+        <v>126.286116013106</v>
       </c>
       <c r="D229">
         <v>38.748705307191997</v>
@@ -6485,18 +6518,18 @@
         <v>44066.879999999997</v>
       </c>
       <c r="G229">
-        <v>19.9087</v>
+        <v>19.9651</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B230">
-        <v>93.104211651510994</v>
+        <v>93.870933699481995</v>
       </c>
       <c r="C230">
-        <v>113.77548817451</v>
+        <v>113.748799524878</v>
       </c>
       <c r="D230">
         <v>39.211395346757001</v>
@@ -6508,18 +6541,18 @@
         <v>42985.73</v>
       </c>
       <c r="G230">
-        <v>20.224799999999998</v>
+        <v>19.921500000000002</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B231">
-        <v>90.852149505217994</v>
+        <v>91.172621395872</v>
       </c>
       <c r="C231">
-        <v>89.959220461423996</v>
+        <v>89.941126797403996</v>
       </c>
       <c r="D231">
         <v>38.640136961084998</v>
@@ -6531,18 +6564,18 @@
         <v>44592.91</v>
       </c>
       <c r="G231">
-        <v>20.939</v>
+        <v>20.309699999999999</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B232">
-        <v>99.782036513429006</v>
+        <v>98.278066604963001</v>
       </c>
       <c r="C232">
-        <v>83.267552497214993</v>
+        <v>83.252276251656994</v>
       </c>
       <c r="D232">
         <v>40.581572053441</v>
@@ -6554,18 +6587,18 @@
         <v>47246.26</v>
       </c>
       <c r="G232">
-        <v>20.440000000000001</v>
+        <v>20.755500000000001</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B233">
-        <v>96.170160175687997</v>
+        <v>96.577826610705003</v>
       </c>
       <c r="C233">
-        <v>94.840263076886004</v>
+        <v>94.819087949215998</v>
       </c>
       <c r="D233">
         <v>42.509073150798997</v>
@@ -6577,18 +6610,18 @@
         <v>48009.72</v>
       </c>
       <c r="G233">
-        <v>20.182200000000002</v>
+        <v>20.0153</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B234">
-        <v>98.193630645352002</v>
+        <v>99.285620933599006</v>
       </c>
       <c r="C234">
-        <v>117.304559090598</v>
+        <v>117.27431638128201</v>
       </c>
       <c r="D234">
         <v>42.422701068797998</v>
@@ -6600,18 +6633,18 @@
         <v>50885.95</v>
       </c>
       <c r="G234">
-        <v>19.921299999999999</v>
+        <v>19.963100000000001</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B235">
-        <v>98.415385660916002</v>
+        <v>97.826539499158002</v>
       </c>
       <c r="C235">
-        <v>119.13270671610501</v>
+        <v>119.108338830376</v>
       </c>
       <c r="D235">
         <v>44.347676509277001</v>
@@ -6623,18 +6656,18 @@
         <v>50289.75</v>
       </c>
       <c r="G235">
-        <v>19.906199999999998</v>
+        <v>20.030100000000001</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B236">
-        <v>97.300227269752</v>
+        <v>97.180219626587004</v>
       </c>
       <c r="C236">
-        <v>108.135491308951</v>
+        <v>108.123475711227</v>
       </c>
       <c r="D236">
         <v>44.293387523756998</v>
@@ -6646,18 +6679,18 @@
         <v>50868.32</v>
       </c>
       <c r="G236">
-        <v>19.845500000000001</v>
+        <v>19.970099999999999</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B237">
-        <v>96.063225292469994</v>
+        <v>96.379554025561006</v>
       </c>
       <c r="C237">
-        <v>82.738958673770995</v>
+        <v>82.737723243296003</v>
       </c>
       <c r="D237">
         <v>42.474646633177002</v>
@@ -6669,18 +6702,18 @@
         <v>53304.74</v>
       </c>
       <c r="G237">
-        <v>20.060500000000001</v>
+        <v>20.0761</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B238">
-        <v>93.734330162522994</v>
+        <v>93.407891685787007</v>
       </c>
       <c r="C238">
-        <v>78.428870565701999</v>
+        <v>78.431784994514999</v>
       </c>
       <c r="D238">
         <v>43.342082825585997</v>
@@ -6692,18 +6725,18 @@
         <v>51385.55</v>
       </c>
       <c r="G238">
-        <v>20.5623</v>
+        <v>20.0487</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B239">
-        <v>96.289783834418003</v>
+        <v>97.047412061206998</v>
       </c>
       <c r="C239">
-        <v>87.948175512277999</v>
+        <v>87.959431478631004</v>
       </c>
       <c r="D239">
         <v>43.843081349925001</v>
@@ -6715,18 +6748,18 @@
         <v>51309.84</v>
       </c>
       <c r="G239">
-        <v>20.529699999999998</v>
+        <v>20.462599999999998</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B240">
-        <v>101.126937147889</v>
+        <v>100.618524431319</v>
       </c>
       <c r="C240">
-        <v>136.884318895132</v>
+        <v>136.93932872576499</v>
       </c>
       <c r="D240">
         <v>45.935432245422</v>
@@ -6738,18 +6771,18 @@
         <v>49698.720000000001</v>
       </c>
       <c r="G240">
-        <v>21.4453</v>
+        <v>20.900400000000001</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B241">
-        <v>99.703505974840994</v>
+        <v>98.982573996094004</v>
       </c>
       <c r="C241">
-        <v>135.90750412366799</v>
+        <v>135.98741920799301</v>
       </c>
       <c r="D241">
         <v>44.896417492952999</v>
@@ -6761,18 +6794,18 @@
         <v>53272.44</v>
       </c>
       <c r="G241">
-        <v>20.467199999999998</v>
+        <v>20.8918</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B242">
-        <v>94.833832335386006</v>
+        <v>95.814116934270999</v>
       </c>
       <c r="C242">
-        <v>111.552370401917</v>
+        <v>111.63584865681401</v>
       </c>
       <c r="D242">
         <v>43.590903532298</v>
@@ -6784,18 +6817,18 @@
         <v>51330.85</v>
       </c>
       <c r="G242">
-        <v>20.635200000000001</v>
+        <v>20.497800000000002</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B243">
-        <v>93.688749233989</v>
+        <v>93.914632491301006</v>
       </c>
       <c r="C243">
-        <v>88.120140945596006</v>
+        <v>88.161930135023994</v>
       </c>
       <c r="D243">
         <v>42.940053805837998</v>
@@ -6807,18 +6840,18 @@
         <v>53400.61</v>
       </c>
       <c r="G243">
-        <v>20.425699999999999</v>
+        <v>20.4495</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B244">
-        <v>101.662125835108</v>
+        <v>99.967807647239994</v>
       </c>
       <c r="C244">
-        <v>88.023945634984003</v>
+        <v>88.046026185125996</v>
       </c>
       <c r="D244">
         <v>43.560277939671998</v>
@@ -6830,18 +6863,18 @@
         <v>56536.68</v>
       </c>
       <c r="G244">
-        <v>19.911200000000001</v>
+        <v>20.5562</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B245">
-        <v>98.590944247983998</v>
+        <v>99.349741652252007</v>
       </c>
       <c r="C245">
-        <v>97.166377064014995</v>
+        <v>97.163813384075993</v>
       </c>
       <c r="D245">
         <v>44.301709560652</v>
@@ -6853,18 +6886,18 @@
         <v>51417.97</v>
       </c>
       <c r="G245">
-        <v>20.372800000000002</v>
+        <v>20.108799999999999</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B246">
-        <v>101.68171628160999</v>
+        <v>101.95598526481599</v>
       </c>
       <c r="C246">
-        <v>121.392875379481</v>
+        <v>121.328212991111</v>
       </c>
       <c r="D246">
         <v>43.782312077302997</v>
@@ -6876,18 +6909,18 @@
         <v>51752.53</v>
       </c>
       <c r="G246">
-        <v>19.693999999999999</v>
+        <v>20.0305</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B247">
-        <v>100.261327972152</v>
+        <v>99.908891189290003</v>
       </c>
       <c r="C247">
-        <v>111.11032805113</v>
+        <v>110.947699708503</v>
       </c>
       <c r="D247">
         <v>43.208627089887997</v>
@@ -6899,18 +6932,18 @@
         <v>47524.45</v>
       </c>
       <c r="G247">
-        <v>20.133500000000002</v>
+        <v>20.023700000000002</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B248">
-        <v>99.736088676582</v>
+        <v>100.508170619061</v>
       </c>
       <c r="C248">
-        <v>102.448256467674</v>
+        <v>102.190307584381</v>
       </c>
       <c r="D248">
         <v>41.269872650913001</v>
@@ -6922,18 +6955,18 @@
         <v>48144.33</v>
       </c>
       <c r="G248">
-        <v>20.348500000000001</v>
+        <v>20.546700000000001</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B249">
-        <v>101.65688943813301</v>
+        <v>101.01171329554001</v>
       </c>
       <c r="C249">
-        <v>85.264453594436006</v>
+        <v>84.975120397590999</v>
       </c>
       <c r="D249">
         <v>40.297933839210003</v>
@@ -6945,18 +6978,18 @@
         <v>44919.22</v>
       </c>
       <c r="G249">
-        <v>20.0962</v>
+        <v>20.120899999999999</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B250">
-        <v>98.765332430360999</v>
+        <v>98.379287082857005</v>
       </c>
       <c r="C250">
-        <v>84.036521416339994</v>
+        <v>83.656480165770006</v>
       </c>
       <c r="D250">
         <v>40.822792165000003</v>
@@ -6968,18 +7001,18 @@
         <v>44626.8</v>
       </c>
       <c r="G250">
-        <v>20.092500000000001</v>
+        <v>20.074999999999999</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B251">
-        <v>100.627900593531</v>
+        <v>101.882677944161</v>
       </c>
       <c r="C251">
-        <v>91.089466365006999</v>
+        <v>91.164301495331003</v>
       </c>
       <c r="D251">
         <v>41.283880015538998</v>
@@ -6991,18 +7024,18 @@
         <v>49922.3</v>
       </c>
       <c r="G251">
-        <v>19.8245</v>
+        <v>19.984500000000001</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B252">
-        <v>105.62896593180901</v>
+        <v>105.19530989596799</v>
       </c>
       <c r="C252">
-        <v>144.49196388394299</v>
+        <v>145.43754722297601</v>
       </c>
       <c r="D252">
         <v>41.755955250832002</v>
@@ -7014,18 +7047,18 @@
         <v>51684.86</v>
       </c>
       <c r="G252">
-        <v>19.3965</v>
+        <v>19.444900000000001</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B253">
-        <v>103.72796240074599</v>
+        <v>103.85864446234</v>
       </c>
       <c r="C253">
-        <v>142.65191182067099</v>
+        <v>142.64132309848901</v>
       </c>
       <c r="D253">
         <v>43.287305150133001</v>
@@ -7037,18 +7070,18 @@
         <v>48463.86</v>
       </c>
       <c r="G253">
-        <v>19.471499999999999</v>
+        <v>19.593</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B254">
-        <v>99.273658429909005</v>
+        <v>99.709560373724003</v>
       </c>
       <c r="C254">
-        <v>107.489863893953</v>
+        <v>108.608164862796</v>
       </c>
       <c r="D254">
         <v>44.774005908794003</v>
@@ -7060,18 +7093,18 @@
         <v>54564.27</v>
       </c>
       <c r="G254">
-        <v>18.793700000000001</v>
+        <v>18.9863</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B255">
-        <v>96.759142591471004</v>
+        <v>97.491386810804997</v>
       </c>
       <c r="C255">
-        <v>94.238780553219996</v>
+        <v>96.180035583050994</v>
       </c>
       <c r="D255">
         <v>44.648579360698001</v>
@@ -7083,18 +7116,18 @@
         <v>52758.06</v>
       </c>
       <c r="G255">
-        <v>18.344799999999999</v>
+        <v>18.598600000000001</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B256">
-        <v>104.092569211742</v>
+        <v>102.62144393337201</v>
       </c>
       <c r="C256">
-        <v>85.691416385902002</v>
+        <v>86.716938029353997</v>
       </c>
       <c r="D256">
         <v>44.497504601820999</v>
@@ -7106,18 +7139,18 @@
         <v>53904</v>
       </c>
       <c r="G256">
-        <v>18.041499999999999</v>
+        <v>18.3749</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B257">
-        <v>100.438899133793</v>
+        <v>102.460969476016</v>
       </c>
       <c r="C257">
-        <v>97.724003145099999</v>
+        <v>99.051072436629994</v>
       </c>
       <c r="D257">
         <v>44.604057252018997</v>
@@ -7129,18 +7162,18 @@
         <v>55121.22</v>
       </c>
       <c r="G257">
-        <v>17.997499999999999</v>
+        <v>18.0855</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B258">
-        <v>106.186349288073</v>
+        <v>105.369408531378</v>
       </c>
       <c r="C258">
-        <v>117.83166281374299</v>
+        <v>118.655938302796</v>
       </c>
       <c r="D258">
         <v>44.672420334263002</v>
@@ -7152,7 +7185,7 @@
         <v>52736.26</v>
       </c>
       <c r="G258">
-        <v>17.741800000000001</v>
+        <v>17.737300000000001</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
@@ -7160,10 +7193,10 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>104.442413495718</v>
+        <v>103.83634325123199</v>
       </c>
       <c r="C259">
-        <v>113.29002897126099</v>
+        <v>113.096416328779</v>
       </c>
       <c r="D259">
         <v>45.900081964233003</v>
@@ -7175,7 +7208,7 @@
         <v>53526.1</v>
       </c>
       <c r="G259">
-        <v>17.1358</v>
+        <v>17.241199999999999</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
@@ -7183,10 +7216,10 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>102.84110671657101</v>
+        <v>104.188589598927</v>
       </c>
       <c r="C260">
-        <v>102.096662761518</v>
+        <v>102.58863626795799</v>
       </c>
       <c r="D260">
         <v>46.382665573225999</v>
@@ -7198,7 +7231,7 @@
         <v>54819.05</v>
       </c>
       <c r="G260">
-        <v>16.7303</v>
+        <v>16.904900000000001</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
@@ -7206,10 +7239,10 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>105.38761306281999</v>
+        <v>104.598699099454</v>
       </c>
       <c r="C261">
-        <v>86.555920767535994</v>
+        <v>86.985835689602993</v>
       </c>
       <c r="D261">
         <v>46.082397318317</v>
@@ -7221,7 +7254,7 @@
         <v>53020.98</v>
       </c>
       <c r="G261">
-        <v>16.917000000000002</v>
+        <v>16.976600000000001</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
@@ -7229,10 +7262,10 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>102.319528889284</v>
+        <v>102.991980596546</v>
       </c>
       <c r="C262">
-        <v>82.838144411884997</v>
+        <v>82.963037234606006</v>
       </c>
       <c r="D262">
         <v>46.378813796553999</v>
@@ -7244,7 +7277,7 @@
         <v>50874.98</v>
       </c>
       <c r="G262">
-        <v>17.412700000000001</v>
+        <v>17.307700000000001</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
@@ -7252,10 +7285,10 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>104.866061984346</v>
+        <v>106.067574904699</v>
       </c>
       <c r="C263">
-        <v>92.598614142334995</v>
+        <v>93.218263426215003</v>
       </c>
       <c r="D263">
         <v>45.669149771775999</v>
@@ -7267,7 +7300,7 @@
         <v>49061.88</v>
       </c>
       <c r="G263">
-        <v>18.036799999999999</v>
+        <v>18.0823</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
@@ -7275,10 +7308,10 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>107.81850771828201</v>
+        <v>107.751350961339</v>
       </c>
       <c r="C264">
-        <v>126.455777995332</v>
+        <v>125.476339485244</v>
       </c>
       <c r="D264">
         <v>46.899020937591999</v>
@@ -7290,7 +7323,7 @@
         <v>54060.01</v>
       </c>
       <c r="G264">
-        <v>17.373000000000001</v>
+        <v>17.3767</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
@@ -7298,10 +7331,10 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>104.751210871084</v>
+        <v>105.773402762282</v>
       </c>
       <c r="C265">
-        <v>140.66685978418701</v>
+        <v>137.98538809570101</v>
       </c>
       <c r="D265">
         <v>47.185889143993997</v>
@@ -7313,7 +7346,7 @@
         <v>57386.25</v>
       </c>
       <c r="G265">
-        <v>16.919</v>
+        <v>17.186</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
@@ -7321,10 +7354,10 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>101.133499468585</v>
+        <v>100.615378579539</v>
       </c>
       <c r="C266">
-        <v>95.392172101518995</v>
+        <v>93.112961115499999</v>
       </c>
       <c r="D266">
         <v>47.571614440638001</v>
@@ -7336,7 +7369,7 @@
         <v>57372.76</v>
       </c>
       <c r="G266">
-        <v>17.1633</v>
+        <v>17.087299999999999</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
@@ -7344,10 +7377,10 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>100.94522633813</v>
+        <v>100.087079117264</v>
       </c>
       <c r="C267">
-        <v>98.561588825596004</v>
+        <v>97.205858357883002</v>
       </c>
       <c r="D267">
         <v>47.125446530714001</v>
@@ -7359,7 +7392,7 @@
         <v>55414</v>
       </c>
       <c r="G267">
-        <v>17.063300000000002</v>
+        <v>17.0898</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
@@ -7367,10 +7400,10 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>102.69601303330499</v>
+        <v>105.981413261917</v>
       </c>
       <c r="C268">
-        <v>86.293998990435</v>
+        <v>86.488927669240994</v>
       </c>
       <c r="D268">
         <v>47.37701218166</v>
@@ -7382,7 +7415,7 @@
         <v>57369.01</v>
       </c>
       <c r="G268">
-        <v>16.532299999999999</v>
+        <v>16.791799999999999</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
@@ -7390,10 +7423,10 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>105.761269866756</v>
+        <v>103.252023853586</v>
       </c>
       <c r="C269">
-        <v>93.616457865835997</v>
+        <v>94.584079325798001</v>
       </c>
       <c r="D269">
         <v>47.734665663569999</v>
@@ -7405,7 +7438,7 @@
         <v>56727.98</v>
       </c>
       <c r="G269">
-        <v>17.095800000000001</v>
+        <v>16.810400000000001</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
@@ -7413,10 +7446,10 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>107.86808110183399</v>
+        <v>107.151082234957</v>
       </c>
       <c r="C270">
-        <v>115.73739715082399</v>
+        <v>113.820274798376</v>
       </c>
       <c r="D270">
         <v>46.695694705173999</v>
@@ -7428,7 +7461,7 @@
         <v>55179.24</v>
       </c>
       <c r="G270">
-        <v>17.017700000000001</v>
+        <v>16.793600000000001</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
@@ -7436,10 +7469,10 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>103.81562240224901</v>
+        <v>105.124313429908</v>
       </c>
       <c r="C271">
-        <v>109.980170028453</v>
+        <v>106.762964423887</v>
       </c>
       <c r="D271">
         <v>48.053007238749998</v>
@@ -7451,7 +7484,260 @@
         <v>52440.02</v>
       </c>
       <c r="G271">
-        <v>18.247800000000002</v>
+        <v>18.217400000000001</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>277</v>
+      </c>
+      <c r="B272">
+        <v>106.34087557962199</v>
+      </c>
+      <c r="C272">
+        <v>113.83395003286699</v>
+      </c>
+      <c r="D272">
+        <v>46.966746692724001</v>
+      </c>
+      <c r="E272">
+        <v>52.082464717969003</v>
+      </c>
+      <c r="F272">
+        <v>53093.97</v>
+      </c>
+      <c r="G272">
+        <v>18.111699999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>278</v>
+      </c>
+      <c r="B273">
+        <v>105.953954063867</v>
+      </c>
+      <c r="C273">
+        <v>83.686744864334997</v>
+      </c>
+      <c r="D273">
+        <v>46.993258614231998</v>
+      </c>
+      <c r="E273">
+        <v>51.510702911511999</v>
+      </c>
+      <c r="F273">
+        <v>51985.87</v>
+      </c>
+      <c r="G273">
+        <v>19.151499999999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>279</v>
+      </c>
+      <c r="B274">
+        <v>103.974825485175</v>
+      </c>
+      <c r="C274">
+        <v>81.920398626354995</v>
+      </c>
+      <c r="D274">
+        <v>46.565337126157999</v>
+      </c>
+      <c r="E274">
+        <v>51.441561516001997</v>
+      </c>
+      <c r="F274">
+        <v>52477.3</v>
+      </c>
+      <c r="G274">
+        <v>19.631599999999999</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>280</v>
+      </c>
+      <c r="B275">
+        <v>105.660735747077</v>
+      </c>
+      <c r="C275">
+        <v>86.945461369037005</v>
+      </c>
+      <c r="D275">
+        <v>48.897877633122</v>
+      </c>
+      <c r="E275">
+        <v>51.982855855876998</v>
+      </c>
+      <c r="F275">
+        <v>50661.05</v>
+      </c>
+      <c r="G275">
+        <v>19.706199999999999</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>281</v>
+      </c>
+      <c r="B276">
+        <v>108.533356180228</v>
+      </c>
+      <c r="C276">
+        <v>122.37686014653001</v>
+      </c>
+      <c r="D276">
+        <v>47.442950378912002</v>
+      </c>
+      <c r="E276">
+        <v>51.705833883170001</v>
+      </c>
+      <c r="F276">
+        <v>49812.639999999999</v>
+      </c>
+      <c r="G276">
+        <v>20.345500000000001</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>282</v>
+      </c>
+      <c r="B277">
+        <v>104.68701186309799</v>
+      </c>
+      <c r="C277">
+        <v>126.842545329866</v>
+      </c>
+      <c r="D277">
+        <v>47.270034347409002</v>
+      </c>
+      <c r="E277">
+        <v>51.594970537645999</v>
+      </c>
+      <c r="F277">
+        <v>49513.27</v>
+      </c>
+      <c r="G277">
+        <v>20.266100000000002</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>283</v>
+      </c>
+      <c r="B278">
+        <v>100.580717205765</v>
+      </c>
+      <c r="C278">
+        <v>106.871526629904</v>
+      </c>
+      <c r="D278">
+        <v>47.149656125926001</v>
+      </c>
+      <c r="E278">
+        <v>52.093663787578997</v>
+      </c>
+      <c r="F278">
+        <v>51209.53</v>
+      </c>
+      <c r="G278">
+        <v>20.548999999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>284</v>
+      </c>
+      <c r="B279">
+        <v>100.899587210063</v>
+      </c>
+      <c r="C279">
+        <v>96.091712524789997</v>
+      </c>
+      <c r="D279">
+        <v>46.488366486733</v>
+      </c>
+      <c r="E279">
+        <v>51.554709731732999</v>
+      </c>
+      <c r="F279">
+        <v>52325.73</v>
+      </c>
+      <c r="G279">
+        <v>20.457100000000001</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>285</v>
+      </c>
+      <c r="B280">
+        <v>105.80887852017101</v>
+      </c>
+      <c r="C280">
+        <v>94.762388364112994</v>
+      </c>
+      <c r="D280">
+        <v>46.090078149416001</v>
+      </c>
+      <c r="E280">
+        <v>51.713886002711</v>
+      </c>
+      <c r="F280">
+        <v>52484.43</v>
+      </c>
+      <c r="G280">
+        <v>20.241700000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>286</v>
+      </c>
+      <c r="B281">
+        <v>104.33151888376101</v>
+      </c>
+      <c r="C281">
+        <v>93.172301484505994</v>
+      </c>
+      <c r="D281">
+        <v>45.454235606749997</v>
+      </c>
+      <c r="E281">
+        <v>51.322182008265003</v>
+      </c>
+      <c r="F281">
+        <v>56259.28</v>
+      </c>
+      <c r="G281">
+        <v>20.0564</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>287</v>
+      </c>
+      <c r="B282">
+        <v>107.532926647286</v>
+      </c>
+      <c r="C282">
+        <v>120.02319362474999</v>
+      </c>
+      <c r="D282">
+        <v>46.497801253238002</v>
+      </c>
+      <c r="E282">
+        <v>52.174658656033003</v>
+      </c>
+      <c r="F282">
+        <v>57841.69</v>
+      </c>
+      <c r="G282">
+        <v>19.435500000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Clase_00/Base_1_TimeSeries.xlsx
+++ b/Clase_00/Base_1_TimeSeries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Documents/Personal/Cursos_UNAM/Series-Tiempo/BD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Documents/Personal/Cursos_Tec/Econometría II/Econometria-II-2025-Tec/Clase_00/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864080E0-535C-F94E-90BA-B49E6C954C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D865FF8-435F-804A-A131-F7C81ACA9012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32100" yWindow="2780" windowWidth="27640" windowHeight="16540" xr2:uid="{0D46E9FE-A0A6-634E-B88F-BB6E7EC27F03}"/>
   </bookViews>
@@ -30,12 +30,6 @@
     <t>Periodo</t>
   </si>
   <si>
-    <t>IGAE_2013</t>
-  </si>
-  <si>
-    <t>IGAE_PRIM_2013</t>
-  </si>
-  <si>
     <t>IPC_BMV</t>
   </si>
   <si>
@@ -889,6 +883,12 @@
   </si>
   <si>
     <t>2025/05</t>
+  </si>
+  <si>
+    <t>IGAE_2018</t>
+  </si>
+  <si>
+    <t>IGAE_PRIM_2018</t>
   </si>
 </sst>
 </file>
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{033E69B6-2D16-514E-A726-941639C52B74}">
   <dimension ref="A1:G282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F283" sqref="F283:F284"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1259,27 +1259,27 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>70.583749647092006</v>
@@ -1302,7 +1302,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>69.194394152379004</v>
@@ -1325,7 +1325,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>72.592518531376001</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>72.983456730922995</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>74.208871115049007</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>73.701724746395001</v>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>73.128225042704997</v>
@@ -1440,7 +1440,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>73.797243601538995</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>74.506493376551006</v>
@@ -1486,7 +1486,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>74.393185771928998</v>
@@ -1509,7 +1509,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>73.364972535443002</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>74.118978295919007</v>
@@ -1555,7 +1555,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>72.081324343690994</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>71.174902715268004</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>73.679288962806993</v>
@@ -1624,7 +1624,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>73.747926225388994</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>74.664130510082998</v>
@@ -1670,7 +1670,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>74.861108702598997</v>
@@ -1693,7 +1693,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>73.654722906665995</v>
@@ -1716,7 +1716,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>73.206182846738997</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>73.955461492688002</v>
@@ -1762,7 +1762,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>74.271446020089002</v>
@@ -1785,7 +1785,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>73.804898866650007</v>
@@ -1808,7 +1808,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>75.649271431707007</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>73.515605228026004</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>72.420021735221994</v>
@@ -1877,7 +1877,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>76.570554247925998</v>
@@ -1900,7 +1900,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>76.318309767892998</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>77.835891213815003</v>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>77.493344897333998</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>75.665844299564</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>76.114574146023003</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>76.491140869831995</v>
@@ -2038,7 +2038,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>77.160903447516006</v>
@@ -2061,7 +2061,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>77.235093879681997</v>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>78.083548965220004</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>75.413723601005003</v>
@@ -2130,7 +2130,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>74.122589725283007</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>77.074854608140996</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>77.599479346221997</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>79.350268774773994</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>77.824628120436003</v>
@@ -2245,7 +2245,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>76.7233942095</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>77.971653802663994</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>78.723733139901995</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>79.831450006672995</v>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>79.761423403608006</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>80.986013149580003</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>79.527855735794006</v>
@@ -2406,7 +2406,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>77.060243763854004</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>80.774608290971003</v>
@@ -2452,7 +2452,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>81.290226114084007</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>83.847142136372995</v>
@@ -2498,7 +2498,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>82.885945231118001</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>81.521710544493004</v>
@@ -2544,7 +2544,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>81.796673019235001</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>82.168569226139994</v>
@@ -2590,7 +2590,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>83.802985910401006</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>82.447981898874005</v>
@@ -2636,7 +2636,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>83.193288885966993</v>
@@ -2659,7 +2659,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>80.357608659396007</v>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>78.607327960397001</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>82.995189302621995</v>
@@ -2728,7 +2728,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>83.300659920235006</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>84.996678768707</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <v>84.993760712135</v>
@@ -2797,7 +2797,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B68">
         <v>83.558176766396002</v>
@@ -2820,7 +2820,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B69">
         <v>83.707344399125006</v>
@@ -2843,7 +2843,7 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B70">
         <v>84.225485012394003</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B71">
         <v>86.015559893344005</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B72">
         <v>84.383824044432998</v>
@@ -2912,7 +2912,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B73">
         <v>84.463491743690994</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B74">
         <v>81.864166937028003</v>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B75">
         <v>80.146601325516002</v>
@@ -2981,7 +2981,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B76">
         <v>83.320527023672994</v>
@@ -3004,7 +3004,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B77">
         <v>84.508159419205001</v>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B78">
         <v>85.365389985945995</v>
@@ -3050,7 +3050,7 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B79">
         <v>86.112085865400999</v>
@@ -3073,7 +3073,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B80">
         <v>84.993701095863003</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B81">
         <v>83.754792677614006</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B82">
         <v>83.727671136240005</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B83">
         <v>86.047447197126999</v>
@@ -3165,7 +3165,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B84">
         <v>83.858306525605002</v>
@@ -3188,7 +3188,7 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B85">
         <v>82.600525423134002</v>
@@ -3211,7 +3211,7 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B86">
         <v>75.921516014526006</v>
@@ -3234,7 +3234,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B87">
         <v>73.893837976377995</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B88">
         <v>77.994558705204994</v>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B89">
         <v>76.665811279644004</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B90">
         <v>77.425021927608</v>
@@ -3326,7 +3326,7 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B91">
         <v>78.721130648659994</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B92">
         <v>79.639975571530002</v>
@@ -3372,7 +3372,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B93">
         <v>78.924653533929998</v>
@@ -3395,7 +3395,7 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B94">
         <v>79.575564209624005</v>
@@ -3418,7 +3418,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B95">
         <v>82.238405065840993</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>82.806708351867002</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B97">
         <v>82.672108835312997</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B98">
         <v>78.447220930715005</v>
@@ -3510,7 +3510,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B99">
         <v>77.296018592769997</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>82.564368161161994</v>
@@ -3556,7 +3556,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B101">
         <v>82.546060547216001</v>
@@ -3579,7 +3579,7 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>83.635547138142996</v>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>83.583960623210004</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>83.672563591957996</v>
@@ -3648,7 +3648,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B105">
         <v>83.134777345207993</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B106">
         <v>83.249270201927004</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B107">
         <v>85.199379631707998</v>
@@ -3717,7 +3717,7 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B108">
         <v>85.865653038293004</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B109">
         <v>85.779269032670001</v>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B110">
         <v>81.945286600323001</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B111">
         <v>80.380154014412</v>
@@ -3809,7 +3809,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B112">
         <v>85.773559683469003</v>
@@ -3832,7 +3832,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B113">
         <v>83.689647829465997</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B114">
         <v>86.324319430417006</v>
@@ -3878,7 +3878,7 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B115">
         <v>86.581991701193999</v>
@@ -3901,7 +3901,7 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B116">
         <v>86.827438201744997</v>
@@ -3924,7 +3924,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B117">
         <v>86.706910676144005</v>
@@ -3947,7 +3947,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B118">
         <v>86.319620916125004</v>
@@ -3970,7 +3970,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B119">
         <v>88.503133555372003</v>
@@ -3993,7 +3993,7 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B120">
         <v>90.232153931040997</v>
@@ -4016,7 +4016,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B121">
         <v>89.092604205631005</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B122">
         <v>85.641061122764</v>
@@ -4062,7 +4062,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B123">
         <v>84.287757634027002</v>
@@ -4085,7 +4085,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B124">
         <v>89.222551114783997</v>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B125">
         <v>88.080122681372004</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B126">
         <v>89.455247573492997</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B127">
         <v>89.794086068870996</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B128">
         <v>90.213172881901002</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B129">
         <v>88.844446127165</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B130">
         <v>88.319069960155005</v>
@@ -4246,7 +4246,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B131">
         <v>90.753696723738997</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B132">
         <v>92.969008525264002</v>
@@ -4292,7 +4292,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B133">
         <v>91.405488820971996</v>
@@ -4315,7 +4315,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B134">
         <v>87.009585611117004</v>
@@ -4338,7 +4338,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B135">
         <v>85.419715570335995</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B136">
         <v>89.895711426749003</v>
@@ -4384,7 +4384,7 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B137">
         <v>88.192812110473994</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B138">
         <v>91.050459842937997</v>
@@ -4430,7 +4430,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B139">
         <v>90.289493354827002</v>
@@ -4453,7 +4453,7 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B140">
         <v>90.498413460549997</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B141">
         <v>90.075342360017004</v>
@@ -4499,7 +4499,7 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B142">
         <v>88.874458660924006</v>
@@ -4522,7 +4522,7 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B143">
         <v>92.134160575300001</v>
@@ -4545,7 +4545,7 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B144">
         <v>93.054307040321007</v>
@@ -4568,7 +4568,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B145">
         <v>92.400402119321001</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B146">
         <v>87.460845449060002</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B147">
         <v>87.210600972948995</v>
@@ -4637,7 +4637,7 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B148">
         <v>91.708777928421</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B149">
         <v>90.843416601008997</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B150">
         <v>93.651750216579998</v>
@@ -4706,7 +4706,7 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B151">
         <v>92.926341732986003</v>
@@ -4729,7 +4729,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B152">
         <v>93.450291972260004</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B153">
         <v>92.006983051806003</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B154">
         <v>90.879160878440999</v>
@@ -4798,7 +4798,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B155">
         <v>94.973807063695006</v>
@@ -4821,7 +4821,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B156">
         <v>95.994415298332996</v>
@@ -4844,7 +4844,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B157">
         <v>94.860081976748006</v>
@@ -4867,7 +4867,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B158">
         <v>90.501794790833003</v>
@@ -4890,7 +4890,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B159">
         <v>89.562329479236993</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B160">
         <v>93.822626332976995</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B161">
         <v>93.427189325648996</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B162">
         <v>94.778210921173994</v>
@@ -4982,7 +4982,7 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B163">
         <v>95.153134010382999</v>
@@ -5005,7 +5005,7 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B164">
         <v>95.594589851790005</v>
@@ -5028,7 +5028,7 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B165">
         <v>94.932593495885996</v>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B166">
         <v>94.905469065353998</v>
@@ -5074,7 +5074,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B167">
         <v>97.167236297311007</v>
@@ -5097,7 +5097,7 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B168">
         <v>97.438620270968997</v>
@@ -5120,7 +5120,7 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B169">
         <v>96.782307884475003</v>
@@ -5143,7 +5143,7 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B170">
         <v>92.476751035481996</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B171">
         <v>91.760313798468005</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B172">
         <v>95.379157273581995</v>
@@ -5212,7 +5212,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B173">
         <v>93.795098817427998</v>
@@ -5235,7 +5235,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B174">
         <v>96.318351739560001</v>
@@ -5258,7 +5258,7 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B175">
         <v>97.054550766473</v>
@@ -5281,7 +5281,7 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B176">
         <v>96.165336984560994</v>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B177">
         <v>96.234836981626003</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B178">
         <v>95.284002624779006</v>
@@ -5350,7 +5350,7 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B179">
         <v>98.729614177735996</v>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B180">
         <v>100.234757825496</v>
@@ -5396,7 +5396,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B181">
         <v>99.658038082920001</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B182">
         <v>95.462523051706995</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B183">
         <v>93.635715885180005</v>
@@ -5465,7 +5465,7 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B184">
         <v>98.346206852098007</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B185">
         <v>96.171377125768004</v>
@@ -5511,7 +5511,7 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B186">
         <v>98.498613467259005</v>
@@ -5534,7 +5534,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B187">
         <v>99.422328276447999</v>
@@ -5557,7 +5557,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B188">
         <v>97.568065518672</v>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B189">
         <v>98.489506981587994</v>
@@ -5603,7 +5603,7 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B190">
         <v>95.763490663528003</v>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B191">
         <v>99.785812402184007</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B192">
         <v>102.452283912415</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B193">
         <v>101.63924288877099</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B194">
         <v>96.755336708906</v>
@@ -5718,7 +5718,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B195">
         <v>95.633280499522996</v>
@@ -5741,7 +5741,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B196">
         <v>100.923256947146</v>
@@ -5764,7 +5764,7 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B197">
         <v>97.609807201197</v>
@@ -5787,7 +5787,7 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B198">
         <v>101.25377993825001</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B199">
         <v>101.251862654729</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B200">
         <v>100.478100555312</v>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B201">
         <v>100.92040954741</v>
@@ -5879,7 +5879,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B202">
         <v>99.126053301363001</v>
@@ -5902,7 +5902,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B203">
         <v>101.65935799437</v>
@@ -5925,7 +5925,7 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B204">
         <v>103.513876317335</v>
@@ -5948,7 +5948,7 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B205">
         <v>101.113366778323</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B206">
         <v>97.791738978523</v>
@@ -5994,7 +5994,7 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B207">
         <v>96.252314837569003</v>
@@ -6017,7 +6017,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B208">
         <v>99.862887629317001</v>
@@ -6040,7 +6040,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B209">
         <v>98.072417153759005</v>
@@ -6063,7 +6063,7 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B210">
         <v>100.652231382953</v>
@@ -6086,7 +6086,7 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B211">
         <v>101.01555581740401</v>
@@ -6109,7 +6109,7 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B212">
         <v>99.837608948888999</v>
@@ -6132,7 +6132,7 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B213">
         <v>100.006590538084</v>
@@ -6155,7 +6155,7 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B214">
         <v>98.217363586410002</v>
@@ -6178,7 +6178,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B215">
         <v>99.792735129557997</v>
@@ -6201,7 +6201,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B216">
         <v>102.901974496107</v>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B217">
         <v>100.263390896226</v>
@@ -6247,7 +6247,7 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B218">
         <v>97.643669678731996</v>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B219">
         <v>94.649828409820003</v>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B220">
         <v>96.399635458499006</v>
@@ -6316,7 +6316,7 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B221">
         <v>76.741213352187003</v>
@@ -6339,7 +6339,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B222">
         <v>77.523814336192004</v>
@@ -6362,7 +6362,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B223">
         <v>86.078654959632999</v>
@@ -6385,7 +6385,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B224">
         <v>89.845644607804005</v>
@@ -6408,7 +6408,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B225">
         <v>92.530644310561996</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B226">
         <v>92.398854695142006</v>
@@ -6454,7 +6454,7 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B227">
         <v>96.231437871843994</v>
@@ -6477,7 +6477,7 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B228">
         <v>100.03879685202099</v>
@@ -6500,7 +6500,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B229">
         <v>97.254765309023995</v>
@@ -6523,7 +6523,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B230">
         <v>93.870933699481995</v>
@@ -6546,7 +6546,7 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B231">
         <v>91.172621395872</v>
@@ -6569,7 +6569,7 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B232">
         <v>98.278066604963001</v>
@@ -6592,7 +6592,7 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B233">
         <v>96.577826610705003</v>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B234">
         <v>99.285620933599006</v>
@@ -6638,7 +6638,7 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B235">
         <v>97.826539499158002</v>
@@ -6661,7 +6661,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B236">
         <v>97.180219626587004</v>
@@ -6684,7 +6684,7 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B237">
         <v>96.379554025561006</v>
@@ -6707,7 +6707,7 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B238">
         <v>93.407891685787007</v>
@@ -6730,7 +6730,7 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B239">
         <v>97.047412061206998</v>
@@ -6753,7 +6753,7 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B240">
         <v>100.618524431319</v>
@@ -6776,7 +6776,7 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B241">
         <v>98.982573996094004</v>
@@ -6799,7 +6799,7 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B242">
         <v>95.814116934270999</v>
@@ -6822,7 +6822,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B243">
         <v>93.914632491301006</v>
@@ -6845,7 +6845,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B244">
         <v>99.967807647239994</v>
@@ -6868,7 +6868,7 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B245">
         <v>99.349741652252007</v>
@@ -6891,7 +6891,7 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B246">
         <v>101.95598526481599</v>
@@ -6914,7 +6914,7 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B247">
         <v>99.908891189290003</v>
@@ -6937,7 +6937,7 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B248">
         <v>100.508170619061</v>
@@ -6960,7 +6960,7 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B249">
         <v>101.01171329554001</v>
@@ -6983,7 +6983,7 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B250">
         <v>98.379287082857005</v>
@@ -7006,7 +7006,7 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B251">
         <v>101.882677944161</v>
@@ -7029,7 +7029,7 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B252">
         <v>105.19530989596799</v>
@@ -7052,7 +7052,7 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B253">
         <v>103.85864446234</v>
@@ -7075,7 +7075,7 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B254">
         <v>99.709560373724003</v>
@@ -7098,7 +7098,7 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B255">
         <v>97.491386810804997</v>
@@ -7121,7 +7121,7 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B256">
         <v>102.62144393337201</v>
@@ -7144,7 +7144,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B257">
         <v>102.460969476016</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B258">
         <v>105.369408531378</v>
@@ -7190,7 +7190,7 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B259">
         <v>103.83634325123199</v>
@@ -7213,7 +7213,7 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B260">
         <v>104.188589598927</v>
@@ -7236,7 +7236,7 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B261">
         <v>104.598699099454</v>
@@ -7259,7 +7259,7 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B262">
         <v>102.991980596546</v>
@@ -7282,7 +7282,7 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B263">
         <v>106.067574904699</v>
@@ -7305,7 +7305,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B264">
         <v>107.751350961339</v>
@@ -7328,7 +7328,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B265">
         <v>105.773402762282</v>
@@ -7351,7 +7351,7 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B266">
         <v>100.615378579539</v>
@@ -7374,7 +7374,7 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B267">
         <v>100.087079117264</v>
@@ -7397,7 +7397,7 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B268">
         <v>105.981413261917</v>
@@ -7420,7 +7420,7 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B269">
         <v>103.252023853586</v>
@@ -7443,7 +7443,7 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B270">
         <v>107.151082234957</v>
@@ -7466,7 +7466,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B271">
         <v>105.124313429908</v>
@@ -7489,7 +7489,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B272">
         <v>106.34087557962199</v>
@@ -7512,7 +7512,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B273">
         <v>105.953954063867</v>
@@ -7535,7 +7535,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B274">
         <v>103.974825485175</v>
@@ -7558,7 +7558,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B275">
         <v>105.660735747077</v>
@@ -7581,7 +7581,7 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B276">
         <v>108.533356180228</v>
@@ -7604,7 +7604,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B277">
         <v>104.68701186309799</v>
@@ -7627,7 +7627,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B278">
         <v>100.580717205765</v>
@@ -7650,7 +7650,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B279">
         <v>100.899587210063</v>
@@ -7673,7 +7673,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B280">
         <v>105.80887852017101</v>
@@ -7696,7 +7696,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B281">
         <v>104.33151888376101</v>
@@ -7719,7 +7719,7 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B282">
         <v>107.532926647286</v>
